--- a/Code/Results/Cases/Case_3_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_line/loading_percent.xlsx
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.0353241090816</v>
+        <v>20.03532410908167</v>
       </c>
       <c r="C3">
-        <v>16.34851667318879</v>
+        <v>16.34851667318897</v>
       </c>
       <c r="D3">
-        <v>4.302580276177423</v>
+        <v>4.302580276177332</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.93587794671834</v>
+        <v>36.93587794671829</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>24.41541741366752</v>
+        <v>24.41541741366738</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>11.55533202780154</v>
       </c>
       <c r="L3">
-        <v>15.91794264987228</v>
+        <v>15.91794264987237</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.05187342655488</v>
+        <v>19.0518734265549</v>
       </c>
       <c r="C4">
-        <v>15.55384242030773</v>
+        <v>15.55384242030781</v>
       </c>
       <c r="D4">
         <v>4.308813072285153</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>23.78294865412511</v>
+        <v>23.78294865412509</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>11.14132846787522</v>
       </c>
       <c r="L4">
-        <v>15.14039229971101</v>
+        <v>15.14039229971102</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.63909303032444</v>
+        <v>18.63909303032448</v>
       </c>
       <c r="C5">
-        <v>15.22070241651204</v>
+        <v>15.22070241651224</v>
       </c>
       <c r="D5">
-        <v>4.31207890676032</v>
+        <v>4.312078906760293</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.52696591386419</v>
+        <v>23.52696591386416</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>10.97144164391836</v>
       </c>
       <c r="L5">
-        <v>14.81448550203053</v>
+        <v>14.81448550203051</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.56981907842004</v>
+        <v>18.56981907841999</v>
       </c>
       <c r="C6">
         <v>15.1648175181168</v>
       </c>
       <c r="D6">
-        <v>4.312663149388198</v>
+        <v>4.312663149387969</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.91343278547538</v>
+        <v>34.91343278547527</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.48456988847168</v>
+        <v>23.4845698884716</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.94316509558899</v>
+        <v>10.94316509558903</v>
       </c>
       <c r="L6">
-        <v>14.75981721604165</v>
+        <v>14.75981721604163</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.04635546777248</v>
+        <v>19.04635546777249</v>
       </c>
       <c r="C7">
-        <v>15.54938749200435</v>
+        <v>15.54938749200437</v>
       </c>
       <c r="D7">
-        <v>4.308854263465688</v>
+        <v>4.308854263465698</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.56111594582254</v>
+        <v>35.56111594582255</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>23.77948911436661</v>
+        <v>23.77948911436657</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.13904190059971</v>
+        <v>11.13904190059976</v>
       </c>
       <c r="L7">
-        <v>15.13603388176797</v>
+        <v>15.13603388176799</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.04431739382984</v>
+        <v>21.04431739382993</v>
       </c>
       <c r="C8">
-        <v>17.16524613881904</v>
+        <v>17.16524613881907</v>
       </c>
       <c r="D8">
-        <v>4.298601718369242</v>
+        <v>4.298601718369137</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.37820766030416</v>
+        <v>38.37820766030421</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25.0960039347359</v>
+        <v>25.09600393473585</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.99276056094835</v>
+        <v>11.99276056094834</v>
       </c>
       <c r="L8">
-        <v>16.71725633041091</v>
+        <v>16.71725633041097</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.6015222181959</v>
+        <v>24.60152221819597</v>
       </c>
       <c r="C9">
-        <v>20.05627985436025</v>
+        <v>20.05627985436032</v>
       </c>
       <c r="D9">
-        <v>4.306993111968089</v>
+        <v>4.306993111968045</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.74044933477417</v>
+        <v>43.74044933477419</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27.72766471548158</v>
+        <v>27.72766471548155</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.62375938749966</v>
+        <v>13.62375938749968</v>
       </c>
       <c r="L9">
-        <v>19.54794094657521</v>
+        <v>19.54794094657525</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.01245737594025</v>
+        <v>27.01245737594007</v>
       </c>
       <c r="C10">
-        <v>22.0265496271038</v>
+        <v>22.02654962710373</v>
       </c>
       <c r="D10">
-        <v>4.335889911706907</v>
+        <v>4.335889911707117</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.58327336234551</v>
+        <v>47.58327336234542</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>29.69374385729037</v>
+        <v>29.69374385729039</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.91658791360711</v>
+        <v>14.91658791360715</v>
       </c>
       <c r="L10">
-        <v>21.47795177510366</v>
+        <v>21.47795177510363</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.06975488423911</v>
+        <v>28.06975488423912</v>
       </c>
       <c r="C11">
-        <v>22.89355305668481</v>
+        <v>22.89355305668472</v>
       </c>
       <c r="D11">
-        <v>4.355358305331296</v>
+        <v>4.35535830533132</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.31431205354922</v>
+        <v>49.31431205354924</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>30.59731567114811</v>
+        <v>30.59731567114812</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.5399143862597</v>
+        <v>15.53991438625967</v>
       </c>
       <c r="L11">
-        <v>22.32736728145991</v>
+        <v>22.3273672814599</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.46488699618564</v>
+        <v>28.46488699618549</v>
       </c>
       <c r="C12">
-        <v>23.21805269838541</v>
+        <v>23.21805269838534</v>
       </c>
       <c r="D12">
-        <v>4.363774243707722</v>
+        <v>4.363774243707597</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.98221126458402</v>
+        <v>49.98221126458359</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>30.94109456733107</v>
+        <v>30.94109456733089</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.77365222928475</v>
+        <v>15.77365222928476</v>
       </c>
       <c r="L12">
-        <v>22.64529414085676</v>
+        <v>22.64529414085668</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,10 +830,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.3800139195964</v>
+        <v>28.3800139195965</v>
       </c>
       <c r="C13">
-        <v>23.14832864991459</v>
+        <v>23.14832864991477</v>
       </c>
       <c r="D13">
         <v>4.361912965396061</v>
@@ -842,13 +842,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.8327049368166</v>
+        <v>49.83270493681672</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>30.86697784664901</v>
+        <v>30.86697784664902</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.72340959952582</v>
+        <v>15.72340959952584</v>
       </c>
       <c r="L13">
-        <v>22.57698208515864</v>
+        <v>22.57698208515865</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.10236504593055</v>
+        <v>28.10236504593052</v>
       </c>
       <c r="C14">
-        <v>22.92032382965076</v>
+        <v>22.92032382965057</v>
       </c>
       <c r="D14">
-        <v>4.356028937556395</v>
+        <v>4.356028937556305</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.36811841957166</v>
+        <v>49.36811841957154</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>30.62556408951797</v>
+        <v>30.62556408951785</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.55918835424512</v>
+        <v>15.55918835424511</v>
       </c>
       <c r="L14">
         <v>22.35359566769582</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.93162803765478</v>
+        <v>27.93162803765471</v>
       </c>
       <c r="C15">
-        <v>22.78018013249038</v>
+        <v>22.7801801324905</v>
       </c>
       <c r="D15">
-        <v>4.352565018308002</v>
+        <v>4.352565018307989</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.08667618813286</v>
+        <v>49.08667618813277</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30.4779123038762</v>
+        <v>30.47791230387615</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.45830817893473</v>
+        <v>15.45830817893469</v>
       </c>
       <c r="L15">
-        <v>22.21629168473943</v>
+        <v>22.2162916847394</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.94260199326347</v>
+        <v>26.94260199326332</v>
       </c>
       <c r="C16">
-        <v>21.96933210290377</v>
+        <v>21.96933210290373</v>
       </c>
       <c r="D16">
-        <v>4.334755931088127</v>
+        <v>4.334755931087978</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.46984459720851</v>
+        <v>47.46984459720841</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29.63490087148861</v>
+        <v>29.63490087148856</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.87551212866238</v>
+        <v>14.87551212866235</v>
       </c>
       <c r="L16">
-        <v>21.42189690232386</v>
+        <v>21.42189690232378</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.32604944382921</v>
+        <v>26.3260494438292</v>
       </c>
       <c r="C17">
-        <v>21.4646660835823</v>
+        <v>21.46466608358242</v>
       </c>
       <c r="D17">
-        <v>4.325540299517247</v>
+        <v>4.325540299517206</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.47392465179686</v>
+        <v>46.47392465179684</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>29.12026951884757</v>
+        <v>29.12026951884756</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.51354260230377</v>
+        <v>14.51354260230379</v>
       </c>
       <c r="L17">
-        <v>20.92749940354524</v>
+        <v>20.92749940354525</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.96768263917037</v>
+        <v>25.96768263917027</v>
       </c>
       <c r="C18">
-        <v>21.17161252157648</v>
+        <v>21.17161252157646</v>
       </c>
       <c r="D18">
-        <v>4.320825849584105</v>
+        <v>4.320825849584211</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.8994457063562</v>
+        <v>45.89944570635603</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28.82510849666457</v>
+        <v>28.82510849666453</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.30361876283392</v>
+        <v>14.30361876283393</v>
       </c>
       <c r="L18">
-        <v>20.64042157961287</v>
+        <v>20.64042157961285</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.84569098323951</v>
+        <v>25.84569098323954</v>
       </c>
       <c r="C19">
-        <v>21.07190054638112</v>
+        <v>21.07190054638107</v>
       </c>
       <c r="D19">
-        <v>4.319326476247908</v>
+        <v>4.319326476247951</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.70463972288991</v>
+        <v>45.70463972288982</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28.72530939086886</v>
+        <v>28.72530939086881</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.23223668774524</v>
+        <v>14.2322366877452</v>
       </c>
       <c r="L19">
-        <v>20.54274529272526</v>
+        <v>20.54274529272521</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.39206689083783</v>
+        <v>26.39206689083784</v>
       </c>
       <c r="C20">
-        <v>21.51867400128469</v>
+        <v>21.51867400128445</v>
       </c>
       <c r="D20">
-        <v>4.326459738898065</v>
+        <v>4.326459738898167</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.5801096723263</v>
+        <v>46.58010967232627</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29.17496405852395</v>
+        <v>29.174964058524</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.55225170207423</v>
+        <v>14.55225170207419</v>
       </c>
       <c r="L20">
-        <v>20.98040713239281</v>
+        <v>20.98040713239277</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.1840558244283</v>
+        <v>28.18405582442837</v>
       </c>
       <c r="C21">
-        <v>22.98739447774497</v>
+        <v>22.987394477745</v>
       </c>
       <c r="D21">
         <v>4.357727731741769</v>
@@ -1146,13 +1146,13 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.50301433521332</v>
+        <v>49.50301433521334</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30.6964263930539</v>
+        <v>30.69642639305385</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.60748391739964</v>
+        <v>15.6074839173997</v>
       </c>
       <c r="L21">
-        <v>22.41930756230218</v>
+        <v>22.41930756230225</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.3249082150644</v>
+        <v>29.32490821506449</v>
       </c>
       <c r="C22">
-        <v>23.92527722414158</v>
+        <v>23.92527722414166</v>
       </c>
       <c r="D22">
-        <v>4.384322757543266</v>
+        <v>4.384322757543315</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.5043706436205</v>
+        <v>51.50437064362055</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31.70043115827754</v>
+        <v>31.70043115827757</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.28389824270356</v>
+        <v>16.28389824270357</v>
       </c>
       <c r="L22">
-        <v>23.33819963178492</v>
+        <v>23.33819963178496</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.71862882073733</v>
+        <v>28.71862882073738</v>
       </c>
       <c r="C23">
-        <v>23.42657839129114</v>
+        <v>23.42657839129107</v>
       </c>
       <c r="D23">
-        <v>4.369515530490172</v>
+        <v>4.369515530490085</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.42995282867552</v>
+        <v>50.42995282867566</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>31.16356469534981</v>
+        <v>31.16356469534989</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.92398035163458</v>
+        <v>15.92398035163461</v>
       </c>
       <c r="L23">
-        <v>22.84959755683169</v>
+        <v>22.84959755683172</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.36223259007959</v>
+        <v>26.36223259007965</v>
       </c>
       <c r="C24">
-        <v>21.49426612814894</v>
+        <v>21.49426612814899</v>
       </c>
       <c r="D24">
-        <v>4.326042252078152</v>
+        <v>4.32604225207813</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.53210941661868</v>
+        <v>46.53210941661881</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>29.15023447442426</v>
+        <v>29.15023447442431</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.53475701791689</v>
+        <v>14.53475701791691</v>
       </c>
       <c r="L24">
-        <v>20.95649642844265</v>
+        <v>20.95649642844269</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.67614780258311</v>
+        <v>23.67614780258314</v>
       </c>
       <c r="C25">
-        <v>19.30242004051877</v>
+        <v>19.30242004051874</v>
       </c>
       <c r="D25">
-        <v>4.301156798583484</v>
+        <v>4.301156798583662</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.30756015291869</v>
+        <v>42.30756015291884</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27.01041816931833</v>
+        <v>27.01041816931843</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.18729973175945</v>
+        <v>13.18729973175947</v>
       </c>
       <c r="L25">
-        <v>18.80964517983723</v>
+        <v>18.80964517983726</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_line/loading_percent.xlsx
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.03532410908167</v>
+        <v>20.0353241090816</v>
       </c>
       <c r="C3">
-        <v>16.34851667318897</v>
+        <v>16.34851667318879</v>
       </c>
       <c r="D3">
-        <v>4.302580276177332</v>
+        <v>4.302580276177423</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.93587794671829</v>
+        <v>36.93587794671834</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>24.41541741366738</v>
+        <v>24.41541741366752</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>11.55533202780154</v>
       </c>
       <c r="L3">
-        <v>15.91794264987237</v>
+        <v>15.91794264987228</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.0518734265549</v>
+        <v>19.05187342655488</v>
       </c>
       <c r="C4">
-        <v>15.55384242030781</v>
+        <v>15.55384242030773</v>
       </c>
       <c r="D4">
         <v>4.308813072285153</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>23.78294865412509</v>
+        <v>23.78294865412511</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>11.14132846787522</v>
       </c>
       <c r="L4">
-        <v>15.14039229971102</v>
+        <v>15.14039229971101</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.63909303032448</v>
+        <v>18.63909303032444</v>
       </c>
       <c r="C5">
-        <v>15.22070241651224</v>
+        <v>15.22070241651204</v>
       </c>
       <c r="D5">
-        <v>4.312078906760293</v>
+        <v>4.31207890676032</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.52696591386416</v>
+        <v>23.52696591386419</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>10.97144164391836</v>
       </c>
       <c r="L5">
-        <v>14.81448550203051</v>
+        <v>14.81448550203053</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.56981907841999</v>
+        <v>18.56981907842004</v>
       </c>
       <c r="C6">
         <v>15.1648175181168</v>
       </c>
       <c r="D6">
-        <v>4.312663149387969</v>
+        <v>4.312663149388198</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.91343278547527</v>
+        <v>34.91343278547538</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.4845698884716</v>
+        <v>23.48456988847168</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.94316509558903</v>
+        <v>10.94316509558899</v>
       </c>
       <c r="L6">
-        <v>14.75981721604163</v>
+        <v>14.75981721604165</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.04635546777249</v>
+        <v>19.04635546777248</v>
       </c>
       <c r="C7">
-        <v>15.54938749200437</v>
+        <v>15.54938749200435</v>
       </c>
       <c r="D7">
-        <v>4.308854263465698</v>
+        <v>4.308854263465688</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.56111594582255</v>
+        <v>35.56111594582254</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>23.77948911436657</v>
+        <v>23.77948911436661</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.13904190059976</v>
+        <v>11.13904190059971</v>
       </c>
       <c r="L7">
-        <v>15.13603388176799</v>
+        <v>15.13603388176797</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.04431739382993</v>
+        <v>21.04431739382984</v>
       </c>
       <c r="C8">
-        <v>17.16524613881907</v>
+        <v>17.16524613881904</v>
       </c>
       <c r="D8">
-        <v>4.298601718369137</v>
+        <v>4.298601718369242</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.37820766030421</v>
+        <v>38.37820766030416</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25.09600393473585</v>
+        <v>25.0960039347359</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.99276056094834</v>
+        <v>11.99276056094835</v>
       </c>
       <c r="L8">
-        <v>16.71725633041097</v>
+        <v>16.71725633041091</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.60152221819597</v>
+        <v>24.6015222181959</v>
       </c>
       <c r="C9">
-        <v>20.05627985436032</v>
+        <v>20.05627985436025</v>
       </c>
       <c r="D9">
-        <v>4.306993111968045</v>
+        <v>4.306993111968089</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.74044933477419</v>
+        <v>43.74044933477417</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27.72766471548155</v>
+        <v>27.72766471548158</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.62375938749968</v>
+        <v>13.62375938749966</v>
       </c>
       <c r="L9">
-        <v>19.54794094657525</v>
+        <v>19.54794094657521</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.01245737594007</v>
+        <v>27.01245737594025</v>
       </c>
       <c r="C10">
-        <v>22.02654962710373</v>
+        <v>22.0265496271038</v>
       </c>
       <c r="D10">
-        <v>4.335889911707117</v>
+        <v>4.335889911706907</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.58327336234542</v>
+        <v>47.58327336234551</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>29.69374385729039</v>
+        <v>29.69374385729037</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.91658791360715</v>
+        <v>14.91658791360711</v>
       </c>
       <c r="L10">
-        <v>21.47795177510363</v>
+        <v>21.47795177510366</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.06975488423912</v>
+        <v>28.06975488423911</v>
       </c>
       <c r="C11">
-        <v>22.89355305668472</v>
+        <v>22.89355305668481</v>
       </c>
       <c r="D11">
-        <v>4.35535830533132</v>
+        <v>4.355358305331296</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.31431205354924</v>
+        <v>49.31431205354922</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>30.59731567114812</v>
+        <v>30.59731567114811</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.53991438625967</v>
+        <v>15.5399143862597</v>
       </c>
       <c r="L11">
-        <v>22.3273672814599</v>
+        <v>22.32736728145991</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.46488699618549</v>
+        <v>28.46488699618564</v>
       </c>
       <c r="C12">
-        <v>23.21805269838534</v>
+        <v>23.21805269838541</v>
       </c>
       <c r="D12">
-        <v>4.363774243707597</v>
+        <v>4.363774243707722</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.98221126458359</v>
+        <v>49.98221126458402</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>30.94109456733089</v>
+        <v>30.94109456733107</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.77365222928476</v>
+        <v>15.77365222928475</v>
       </c>
       <c r="L12">
-        <v>22.64529414085668</v>
+        <v>22.64529414085676</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,10 +830,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.3800139195965</v>
+        <v>28.3800139195964</v>
       </c>
       <c r="C13">
-        <v>23.14832864991477</v>
+        <v>23.14832864991459</v>
       </c>
       <c r="D13">
         <v>4.361912965396061</v>
@@ -842,13 +842,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.83270493681672</v>
+        <v>49.8327049368166</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>30.86697784664902</v>
+        <v>30.86697784664901</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.72340959952584</v>
+        <v>15.72340959952582</v>
       </c>
       <c r="L13">
-        <v>22.57698208515865</v>
+        <v>22.57698208515864</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.10236504593052</v>
+        <v>28.10236504593055</v>
       </c>
       <c r="C14">
-        <v>22.92032382965057</v>
+        <v>22.92032382965076</v>
       </c>
       <c r="D14">
-        <v>4.356028937556305</v>
+        <v>4.356028937556395</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.36811841957154</v>
+        <v>49.36811841957166</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>30.62556408951785</v>
+        <v>30.62556408951797</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.55918835424511</v>
+        <v>15.55918835424512</v>
       </c>
       <c r="L14">
         <v>22.35359566769582</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.93162803765471</v>
+        <v>27.93162803765478</v>
       </c>
       <c r="C15">
-        <v>22.7801801324905</v>
+        <v>22.78018013249038</v>
       </c>
       <c r="D15">
-        <v>4.352565018307989</v>
+        <v>4.352565018308002</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.08667618813277</v>
+        <v>49.08667618813286</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30.47791230387615</v>
+        <v>30.4779123038762</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.45830817893469</v>
+        <v>15.45830817893473</v>
       </c>
       <c r="L15">
-        <v>22.2162916847394</v>
+        <v>22.21629168473943</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.94260199326332</v>
+        <v>26.94260199326347</v>
       </c>
       <c r="C16">
-        <v>21.96933210290373</v>
+        <v>21.96933210290377</v>
       </c>
       <c r="D16">
-        <v>4.334755931087978</v>
+        <v>4.334755931088127</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.46984459720841</v>
+        <v>47.46984459720851</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29.63490087148856</v>
+        <v>29.63490087148861</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.87551212866235</v>
+        <v>14.87551212866238</v>
       </c>
       <c r="L16">
-        <v>21.42189690232378</v>
+        <v>21.42189690232386</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.3260494438292</v>
+        <v>26.32604944382921</v>
       </c>
       <c r="C17">
-        <v>21.46466608358242</v>
+        <v>21.4646660835823</v>
       </c>
       <c r="D17">
-        <v>4.325540299517206</v>
+        <v>4.325540299517247</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.47392465179684</v>
+        <v>46.47392465179686</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>29.12026951884756</v>
+        <v>29.12026951884757</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.51354260230379</v>
+        <v>14.51354260230377</v>
       </c>
       <c r="L17">
-        <v>20.92749940354525</v>
+        <v>20.92749940354524</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.96768263917027</v>
+        <v>25.96768263917037</v>
       </c>
       <c r="C18">
-        <v>21.17161252157646</v>
+        <v>21.17161252157648</v>
       </c>
       <c r="D18">
-        <v>4.320825849584211</v>
+        <v>4.320825849584105</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.89944570635603</v>
+        <v>45.8994457063562</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28.82510849666453</v>
+        <v>28.82510849666457</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.30361876283393</v>
+        <v>14.30361876283392</v>
       </c>
       <c r="L18">
-        <v>20.64042157961285</v>
+        <v>20.64042157961287</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.84569098323954</v>
+        <v>25.84569098323951</v>
       </c>
       <c r="C19">
-        <v>21.07190054638107</v>
+        <v>21.07190054638112</v>
       </c>
       <c r="D19">
-        <v>4.319326476247951</v>
+        <v>4.319326476247908</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.70463972288982</v>
+        <v>45.70463972288991</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28.72530939086881</v>
+        <v>28.72530939086886</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.2322366877452</v>
+        <v>14.23223668774524</v>
       </c>
       <c r="L19">
-        <v>20.54274529272521</v>
+        <v>20.54274529272526</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.39206689083784</v>
+        <v>26.39206689083783</v>
       </c>
       <c r="C20">
-        <v>21.51867400128445</v>
+        <v>21.51867400128469</v>
       </c>
       <c r="D20">
-        <v>4.326459738898167</v>
+        <v>4.326459738898065</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.58010967232627</v>
+        <v>46.5801096723263</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29.174964058524</v>
+        <v>29.17496405852395</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.55225170207419</v>
+        <v>14.55225170207423</v>
       </c>
       <c r="L20">
-        <v>20.98040713239277</v>
+        <v>20.98040713239281</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.18405582442837</v>
+        <v>28.1840558244283</v>
       </c>
       <c r="C21">
-        <v>22.987394477745</v>
+        <v>22.98739447774497</v>
       </c>
       <c r="D21">
         <v>4.357727731741769</v>
@@ -1146,13 +1146,13 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.50301433521334</v>
+        <v>49.50301433521332</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30.69642639305385</v>
+        <v>30.6964263930539</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.6074839173997</v>
+        <v>15.60748391739964</v>
       </c>
       <c r="L21">
-        <v>22.41930756230225</v>
+        <v>22.41930756230218</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.32490821506449</v>
+        <v>29.3249082150644</v>
       </c>
       <c r="C22">
-        <v>23.92527722414166</v>
+        <v>23.92527722414158</v>
       </c>
       <c r="D22">
-        <v>4.384322757543315</v>
+        <v>4.384322757543266</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.50437064362055</v>
+        <v>51.5043706436205</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31.70043115827757</v>
+        <v>31.70043115827754</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.28389824270357</v>
+        <v>16.28389824270356</v>
       </c>
       <c r="L22">
-        <v>23.33819963178496</v>
+        <v>23.33819963178492</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.71862882073738</v>
+        <v>28.71862882073733</v>
       </c>
       <c r="C23">
-        <v>23.42657839129107</v>
+        <v>23.42657839129114</v>
       </c>
       <c r="D23">
-        <v>4.369515530490085</v>
+        <v>4.369515530490172</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.42995282867566</v>
+        <v>50.42995282867552</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>31.16356469534989</v>
+        <v>31.16356469534981</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.92398035163461</v>
+        <v>15.92398035163458</v>
       </c>
       <c r="L23">
-        <v>22.84959755683172</v>
+        <v>22.84959755683169</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.36223259007965</v>
+        <v>26.36223259007959</v>
       </c>
       <c r="C24">
-        <v>21.49426612814899</v>
+        <v>21.49426612814894</v>
       </c>
       <c r="D24">
-        <v>4.32604225207813</v>
+        <v>4.326042252078152</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.53210941661881</v>
+        <v>46.53210941661868</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>29.15023447442431</v>
+        <v>29.15023447442426</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.53475701791691</v>
+        <v>14.53475701791689</v>
       </c>
       <c r="L24">
-        <v>20.95649642844269</v>
+        <v>20.95649642844265</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.67614780258314</v>
+        <v>23.67614780258311</v>
       </c>
       <c r="C25">
-        <v>19.30242004051874</v>
+        <v>19.30242004051877</v>
       </c>
       <c r="D25">
-        <v>4.301156798583662</v>
+        <v>4.301156798583484</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.30756015291884</v>
+        <v>42.30756015291869</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27.01041816931843</v>
+        <v>27.01041816931833</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.18729973175947</v>
+        <v>13.18729973175945</v>
       </c>
       <c r="L25">
-        <v>18.80964517983726</v>
+        <v>18.80964517983723</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.56066653371465</v>
+        <v>21.44198713818082</v>
       </c>
       <c r="C2">
-        <v>17.58376194631318</v>
+        <v>17.41640053281796</v>
       </c>
       <c r="D2">
-        <v>4.297574655730349</v>
+        <v>4.420155725980755</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.13080941564488</v>
+        <v>39.24537476183334</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.051915714714892</v>
       </c>
       <c r="H2">
-        <v>25.45616301426005</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>25.60222814982972</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.22125340069495</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>17.12691609355083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>12.18994570816997</v>
+      </c>
+      <c r="M2">
+        <v>17.07565364293246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.0353241090816</v>
+        <v>19.92051269723255</v>
       </c>
       <c r="C3">
-        <v>16.34851667318879</v>
+        <v>16.1839604044281</v>
       </c>
       <c r="D3">
-        <v>4.302580276177423</v>
+        <v>4.429795996374042</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.93587794671834</v>
+        <v>37.08761411154511</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.06401565078856</v>
       </c>
       <c r="H3">
-        <v>24.41541741366752</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>24.58493683799703</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.55533202780154</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>15.91794264987228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>11.52242031544601</v>
+      </c>
+      <c r="M3">
+        <v>15.86893232862433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.05187342655488</v>
+        <v>18.93945869152897</v>
       </c>
       <c r="C4">
-        <v>15.55384242030773</v>
+        <v>15.39085737143098</v>
       </c>
       <c r="D4">
-        <v>4.308813072285153</v>
+        <v>4.438783072455478</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.56867342144274</v>
+        <v>35.74546914642361</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.071582041625485</v>
       </c>
       <c r="H4">
-        <v>23.78294865412511</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>23.96775710537922</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.14132846787522</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>15.14039229971101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>11.10720440951717</v>
+      </c>
+      <c r="M4">
+        <v>15.09274353664163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.63909303032444</v>
+        <v>18.52766167298815</v>
       </c>
       <c r="C5">
-        <v>15.22070241651204</v>
+        <v>15.05831669997898</v>
       </c>
       <c r="D5">
-        <v>4.31207890676032</v>
+        <v>4.443151509455541</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.00696635488821</v>
+        <v>35.19454569730445</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.0747035418455</v>
       </c>
       <c r="H5">
-        <v>23.52696591386419</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>23.71821776624395</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.97144164391836</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>14.81448550203053</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>10.9367668642569</v>
+      </c>
+      <c r="M5">
+        <v>14.7673869647236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.56981907842004</v>
+        <v>18.45855144212685</v>
       </c>
       <c r="C6">
-        <v>15.1648175181168</v>
+        <v>15.00252873158832</v>
       </c>
       <c r="D6">
-        <v>4.312663149388198</v>
+        <v>4.443917735653794</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.91343278547538</v>
+        <v>35.10283743505505</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.075224269416765</v>
       </c>
       <c r="H6">
-        <v>23.48456988847168</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>23.67690415845489</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.94316509558899</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>14.75981721604165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>10.9083954649796</v>
+      </c>
+      <c r="M6">
+        <v>14.71280977649439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.04635546777248</v>
+        <v>18.93395396647017</v>
       </c>
       <c r="C7">
-        <v>15.54938749200435</v>
+        <v>15.38641069672961</v>
       </c>
       <c r="D7">
-        <v>4.308854263465688</v>
+        <v>4.438839209655874</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.56111594582254</v>
+        <v>35.73805477934936</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.071623980225958</v>
       </c>
       <c r="H7">
-        <v>23.77948911436661</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>23.96438361732258</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.13904190059971</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>15.13603388176797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>11.10491064369043</v>
+      </c>
+      <c r="M7">
+        <v>15.08839255732265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.04431739382984</v>
+        <v>20.92696808859144</v>
       </c>
       <c r="C8">
-        <v>17.16524613881904</v>
+        <v>16.99888198730144</v>
       </c>
       <c r="D8">
-        <v>4.298601718369242</v>
+        <v>4.422801727634177</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.37820766030416</v>
+        <v>38.50513232799297</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.0560616730577</v>
       </c>
       <c r="H8">
-        <v>25.0960039347359</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>25.24996671359026</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.99276056094835</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>16.71725633041091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>11.96094728306871</v>
+      </c>
+      <c r="M8">
+        <v>16.66677540839005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.6015222181959</v>
+        <v>24.47455687999768</v>
       </c>
       <c r="C9">
-        <v>20.05627985436025</v>
+        <v>19.88213114199851</v>
       </c>
       <c r="D9">
-        <v>4.306993111968089</v>
+        <v>4.418978420822224</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.74044933477417</v>
+        <v>43.78641229665545</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.026444088877734</v>
       </c>
       <c r="H9">
-        <v>27.72766471548158</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>27.82828666003087</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.62375938749966</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>19.54794094657521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>13.59466592765815</v>
+      </c>
+      <c r="M9">
+        <v>19.49166431838422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.01245737594025</v>
+        <v>26.87831237549889</v>
       </c>
       <c r="C10">
-        <v>22.0265496271038</v>
+        <v>21.84596509438305</v>
       </c>
       <c r="D10">
-        <v>4.335889911706907</v>
+        <v>4.438170149301701</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.58327336234551</v>
+        <v>47.5790991412271</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.004935354024948</v>
       </c>
       <c r="H10">
-        <v>29.69374385729037</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>29.75974448762868</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.91658791360711</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>21.47795177510366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>14.90922441942164</v>
+      </c>
+      <c r="M10">
+        <v>21.41715519774743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.06975488423911</v>
+        <v>27.93226521475122</v>
       </c>
       <c r="C11">
-        <v>22.89355305668481</v>
+        <v>22.70985265351959</v>
       </c>
       <c r="D11">
-        <v>4.355358305331296</v>
+        <v>4.453021624906777</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.31431205354922</v>
+        <v>49.28907056069328</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.995126130978679</v>
       </c>
       <c r="H11">
-        <v>30.59731567114811</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>30.64851054765638</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.5399143862597</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>22.32736728145991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>15.53159586204094</v>
+      </c>
+      <c r="M11">
+        <v>22.2644162879549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.46488699618564</v>
+        <v>28.32611350952188</v>
       </c>
       <c r="C12">
-        <v>23.21805269838541</v>
+        <v>23.03314059876033</v>
       </c>
       <c r="D12">
-        <v>4.363774243707722</v>
+        <v>4.459656654636618</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.98221126458402</v>
+        <v>49.93491506128107</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.991400248665028</v>
       </c>
       <c r="H12">
-        <v>30.94109456733107</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>30.98681011374989</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.77365222928475</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>22.64529414085676</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>15.76495021534002</v>
+      </c>
+      <c r="M12">
+        <v>22.58150848315134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.3800139195964</v>
+        <v>28.24151780483208</v>
       </c>
       <c r="C13">
-        <v>23.14832864991459</v>
+        <v>22.9636790190783</v>
       </c>
       <c r="D13">
-        <v>4.361912965396061</v>
+        <v>4.458180432705018</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.8327049368166</v>
+        <v>49.79588538641156</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.992203325912709</v>
       </c>
       <c r="H13">
-        <v>30.86697784664901</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>30.91386797541303</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.72340959952582</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>22.57698208515864</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>15.71479120921545</v>
+      </c>
+      <c r="M13">
+        <v>22.51337711330118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.10236504593055</v>
+        <v>27.96477014150194</v>
       </c>
       <c r="C14">
-        <v>22.92032382965076</v>
+        <v>22.73652440998339</v>
       </c>
       <c r="D14">
-        <v>4.356028937556395</v>
+        <v>4.453546414085962</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.36811841957166</v>
+        <v>49.34223464536896</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.994819876738131</v>
       </c>
       <c r="H14">
-        <v>30.62556408951797</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>30.67630568795411</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.55918835424512</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>22.35359566769582</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>15.55083873939752</v>
+      </c>
+      <c r="M14">
+        <v>22.29057641469905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.93162803765478</v>
+        <v>27.79458270012183</v>
       </c>
       <c r="C15">
-        <v>22.78018013249038</v>
+        <v>22.5968971816838</v>
       </c>
       <c r="D15">
-        <v>4.352565018308002</v>
+        <v>4.450843812912213</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.08667618813286</v>
+        <v>49.06415993020117</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.99642086048166</v>
       </c>
       <c r="H15">
-        <v>30.4779123038762</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>30.53102930559939</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.45830817893473</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>22.21629168473943</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>15.45012024226627</v>
+      </c>
+      <c r="M15">
+        <v>22.1536285881228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.94260199326347</v>
+        <v>26.80867351623176</v>
       </c>
       <c r="C16">
-        <v>21.96933210290377</v>
+        <v>21.78894704901338</v>
       </c>
       <c r="D16">
-        <v>4.334755931088127</v>
+        <v>4.437333528829064</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.46984459720851</v>
+        <v>47.46707993794134</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.005575273642943</v>
       </c>
       <c r="H16">
-        <v>29.63490087148861</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>29.70188744207159</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.87551212866238</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>21.42189690232386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>14.86820818467383</v>
+      </c>
+      <c r="M16">
+        <v>21.36123876889958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.32604944382921</v>
+        <v>26.19400912656902</v>
       </c>
       <c r="C17">
-        <v>21.4646660835823</v>
+        <v>21.28600777858251</v>
       </c>
       <c r="D17">
-        <v>4.325540299517247</v>
+        <v>4.430700827000781</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.47392465179686</v>
+        <v>46.4837042905419</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.011179698766689</v>
       </c>
       <c r="H17">
-        <v>29.12026951884757</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>29.19600142518252</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.51354260230377</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>20.92749940354524</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>14.50674571352922</v>
+      </c>
+      <c r="M17">
+        <v>20.8680431016896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.96768263917037</v>
+        <v>25.83672137570159</v>
       </c>
       <c r="C18">
-        <v>21.17161252157648</v>
+        <v>20.99393006488962</v>
       </c>
       <c r="D18">
-        <v>4.320825849584105</v>
+        <v>4.427453205477013</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.8994457063562</v>
+        <v>45.91660609123822</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.014401413351478</v>
       </c>
       <c r="H18">
-        <v>28.82510849666457</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>28.9059600242724</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.30361876283392</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>20.64042157961287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>14.29710151610992</v>
+      </c>
+      <c r="M18">
+        <v>20.58164763496028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.84569098323951</v>
+        <v>25.71509403117003</v>
       </c>
       <c r="C19">
-        <v>21.07190054638112</v>
+        <v>20.89454563419513</v>
       </c>
       <c r="D19">
-        <v>4.319326476247908</v>
+        <v>4.426447352380702</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.70463972288991</v>
+        <v>45.72432832403477</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.0154921385602</v>
       </c>
       <c r="H19">
-        <v>28.72530939086886</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>28.80790991177475</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.23223668774524</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>20.54274529272526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>14.22581214140993</v>
+      </c>
+      <c r="M19">
+        <v>20.48420097735479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.39206689083783</v>
+        <v>26.25982633528289</v>
       </c>
       <c r="C20">
-        <v>21.51867400128469</v>
+        <v>21.33983370336272</v>
       </c>
       <c r="D20">
-        <v>4.326459738898065</v>
+        <v>4.431347280743987</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.5801096723263</v>
+        <v>46.58853699787585</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.010583337181495</v>
       </c>
       <c r="H20">
-        <v>29.17496405852395</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>29.24975579222512</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.55225170207423</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>20.98040713239281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>14.5454020982385</v>
+      </c>
+      <c r="M20">
+        <v>20.9208238453615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.1840558244283</v>
+        <v>28.0461967361583</v>
       </c>
       <c r="C21">
-        <v>22.98739447774497</v>
+        <v>22.80334623968164</v>
       </c>
       <c r="D21">
-        <v>4.357727731741769</v>
+        <v>4.454878962896058</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.50301433521332</v>
+        <v>49.47552344373798</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.994051708383627</v>
       </c>
       <c r="H21">
-        <v>30.6964263930539</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>30.746033351496</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.60748391739964</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>22.41930756230218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>15.5990559794725</v>
+      </c>
+      <c r="M21">
+        <v>22.35611682429218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.3249082150644</v>
+        <v>29.18327254119318</v>
       </c>
       <c r="C22">
-        <v>23.92527722414158</v>
+        <v>23.73763647385082</v>
       </c>
       <c r="D22">
-        <v>4.384322757543266</v>
+        <v>4.476226263285846</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.5043706436205</v>
+        <v>51.39854899934838</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.983176654998828</v>
       </c>
       <c r="H22">
-        <v>31.70043115827754</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>31.73431385491823</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.28389824270356</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>23.33819963178492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>16.27430923455497</v>
+      </c>
+      <c r="M22">
+        <v>23.27253829403907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.71862882073733</v>
+        <v>28.57902072822603</v>
       </c>
       <c r="C23">
-        <v>23.42657839129114</v>
+        <v>23.24087435960951</v>
       </c>
       <c r="D23">
-        <v>4.369515530490172</v>
+        <v>4.464238559592613</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.42995282867552</v>
+        <v>50.35154918660481</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.988990253262928</v>
       </c>
       <c r="H23">
-        <v>31.16356469534981</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>31.20577614642836</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.92398035163458</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>22.84959755683169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>15.91502419445649</v>
+      </c>
+      <c r="M23">
+        <v>22.78526705262423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.36223259007959</v>
+        <v>26.23008258199899</v>
       </c>
       <c r="C24">
-        <v>21.49426612814894</v>
+        <v>21.31550816148658</v>
       </c>
       <c r="D24">
-        <v>4.326042252078152</v>
+        <v>4.431053266943087</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.53210941661868</v>
+        <v>46.54114759498898</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.010852952757046</v>
       </c>
       <c r="H24">
-        <v>29.15023447442426</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>29.22545097361315</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.53475701791689</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>20.95649642844265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>14.52793128331576</v>
+      </c>
+      <c r="M24">
+        <v>20.89697057783702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.67614780258311</v>
+        <v>23.55178912562338</v>
       </c>
       <c r="C25">
-        <v>19.30242004051877</v>
+        <v>19.13049673382189</v>
       </c>
       <c r="D25">
-        <v>4.301156798583484</v>
+        <v>4.416560323734146</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.30756015291869</v>
+        <v>42.37369491852162</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.034388436425731</v>
       </c>
       <c r="H25">
-        <v>27.01041816931833</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>27.12466294861971</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.18729973175945</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>18.80964517983723</v>
+        <v>13.15766926347192</v>
+      </c>
+      <c r="M25">
+        <v>18.75497115562901</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,851 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.44198713818082</v>
+        <v>19.94059250901294</v>
       </c>
       <c r="C2">
-        <v>17.41640053281796</v>
+        <v>13.41697707348742</v>
       </c>
       <c r="D2">
-        <v>4.420155725980755</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>3.624625035069696</v>
       </c>
       <c r="F2">
-        <v>39.24537476183334</v>
+        <v>23.00696742843187</v>
       </c>
       <c r="G2">
-        <v>2.051915714714892</v>
+        <v>2.064879471854126</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.60222814982972</v>
-      </c>
-      <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>12.18994570816997</v>
-      </c>
-      <c r="M2">
-        <v>17.07565364293246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>17.43404795150301</v>
+      </c>
+      <c r="N2">
+        <v>11.22359650780427</v>
+      </c>
+      <c r="O2">
+        <v>17.41659690215825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.92051269723255</v>
+        <v>18.56055820318655</v>
       </c>
       <c r="C3">
-        <v>16.1839604044281</v>
+        <v>12.53480678341141</v>
       </c>
       <c r="D3">
-        <v>4.429795996374042</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>3.626003219873022</v>
       </c>
       <c r="F3">
-        <v>37.08761411154511</v>
+        <v>22.12420761692134</v>
       </c>
       <c r="G3">
-        <v>2.06401565078856</v>
+        <v>2.072463505684038</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.58493683799703</v>
-      </c>
-      <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>11.52242031544601</v>
-      </c>
-      <c r="M3">
-        <v>15.86893232862433</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>16.26901384328049</v>
+      </c>
+      <c r="N3">
+        <v>11.47612566329467</v>
+      </c>
+      <c r="O3">
+        <v>16.96902737556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.93945869152897</v>
+        <v>17.66596988579361</v>
       </c>
       <c r="C4">
-        <v>15.39085737143098</v>
+        <v>11.96388708220318</v>
       </c>
       <c r="D4">
-        <v>4.438783072455478</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>3.627306978052273</v>
       </c>
       <c r="F4">
-        <v>35.74546914642361</v>
+        <v>21.59554861976293</v>
       </c>
       <c r="G4">
-        <v>2.071582041625485</v>
+        <v>2.077244088991977</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.96775710537922</v>
-      </c>
-      <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>11.10720440951717</v>
-      </c>
-      <c r="M4">
-        <v>15.09274353664163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.51449412754135</v>
+      </c>
+      <c r="N4">
+        <v>11.63396393761788</v>
+      </c>
+      <c r="O4">
+        <v>16.71274703302056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.52766167298815</v>
+        <v>17.28942620558128</v>
       </c>
       <c r="C5">
-        <v>15.05831669997898</v>
+        <v>11.72383049787362</v>
       </c>
       <c r="D5">
-        <v>4.443151509455541</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>3.627951954821223</v>
       </c>
       <c r="F5">
-        <v>35.19454569730445</v>
+        <v>21.38370177590914</v>
       </c>
       <c r="G5">
-        <v>2.0747035418455</v>
+        <v>2.079224657627419</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.71821776624395</v>
-      </c>
-      <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>10.9367668642569</v>
-      </c>
-      <c r="M5">
-        <v>14.7673869647236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15.19709446196522</v>
+      </c>
+      <c r="N5">
+        <v>11.699025449039</v>
+      </c>
+      <c r="O5">
+        <v>16.61293985892037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.45855144212685</v>
+        <v>17.22617392902787</v>
       </c>
       <c r="C6">
-        <v>15.00252873158832</v>
+        <v>11.68352112241264</v>
       </c>
       <c r="D6">
-        <v>4.443917735653794</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>3.628065885797096</v>
       </c>
       <c r="F6">
-        <v>35.10283743505505</v>
+        <v>21.34874813981273</v>
       </c>
       <c r="G6">
-        <v>2.075224269416765</v>
+        <v>2.079555524742759</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.67690415845489</v>
-      </c>
-      <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>10.9083954649796</v>
-      </c>
-      <c r="M6">
-        <v>14.71280977649439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15.143788946599</v>
+      </c>
+      <c r="N6">
+        <v>11.7098747808539</v>
+      </c>
+      <c r="O6">
+        <v>16.59664530881305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.93395396647017</v>
+        <v>17.66094038624836</v>
       </c>
       <c r="C7">
-        <v>15.38641069672961</v>
+        <v>11.96067961724209</v>
       </c>
       <c r="D7">
-        <v>4.438839209655874</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>3.62731521767424</v>
       </c>
       <c r="F7">
-        <v>35.73805477934936</v>
+        <v>21.59267675336868</v>
       </c>
       <c r="G7">
-        <v>2.071623980225958</v>
+        <v>2.077270666647753</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.96438361732258</v>
-      </c>
-      <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>11.10491064369043</v>
-      </c>
-      <c r="M7">
-        <v>15.08839255732265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.51025384932197</v>
+      </c>
+      <c r="N7">
+        <v>11.63483832654987</v>
+      </c>
+      <c r="O7">
+        <v>16.71138230816291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.92696808859144</v>
+        <v>19.47449277889239</v>
       </c>
       <c r="C8">
-        <v>16.99888198730144</v>
+        <v>13.11884922310248</v>
       </c>
       <c r="D8">
-        <v>4.422801727634177</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>3.625004326898937</v>
       </c>
       <c r="F8">
-        <v>38.50513232799297</v>
+        <v>22.69995137046702</v>
       </c>
       <c r="G8">
-        <v>2.0560616730577</v>
+        <v>2.067469510698684</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.24996671359026</v>
-      </c>
-      <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>11.96094728306871</v>
-      </c>
-      <c r="M8">
-        <v>16.66677540839005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17.04042992264505</v>
+      </c>
+      <c r="N8">
+        <v>11.31011611079275</v>
+      </c>
+      <c r="O8">
+        <v>17.25841602757811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.47455687999768</v>
+        <v>22.66130748241273</v>
       </c>
       <c r="C9">
-        <v>19.88213114199851</v>
+        <v>15.16027552667559</v>
       </c>
       <c r="D9">
-        <v>4.418978420822224</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>3.624187186310602</v>
       </c>
       <c r="F9">
-        <v>43.78641229665545</v>
+        <v>24.96827999469953</v>
       </c>
       <c r="G9">
-        <v>2.026444088877734</v>
+        <v>2.049171102880043</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.82828666003087</v>
-      </c>
-      <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>13.59466592765815</v>
-      </c>
-      <c r="M9">
-        <v>19.49166431838422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19.73394558835752</v>
+      </c>
+      <c r="N9">
+        <v>10.69344113218398</v>
+      </c>
+      <c r="O9">
+        <v>18.47886078887069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.87831237549889</v>
+        <v>24.78507609849902</v>
       </c>
       <c r="C10">
-        <v>21.84596509438305</v>
+        <v>16.52409350494817</v>
       </c>
       <c r="D10">
-        <v>4.438170149301701</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>3.626006745317809</v>
       </c>
       <c r="F10">
-        <v>47.5790991412271</v>
+        <v>26.68396122849679</v>
       </c>
       <c r="G10">
-        <v>2.004935354024948</v>
+        <v>2.036195538920755</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.75974448762868</v>
-      </c>
-      <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>14.90922441942164</v>
-      </c>
-      <c r="M10">
-        <v>21.41715519774743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>21.53142345768802</v>
+      </c>
+      <c r="N10">
+        <v>10.24963591342404</v>
+      </c>
+      <c r="O10">
+        <v>19.46613040571021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.93226521475122</v>
+        <v>25.7057905678279</v>
       </c>
       <c r="C11">
-        <v>22.70985265351959</v>
+        <v>17.11604260828796</v>
       </c>
       <c r="D11">
-        <v>4.453021624906777</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>3.627406928085717</v>
       </c>
       <c r="F11">
-        <v>49.28907056069328</v>
+        <v>27.47378425131497</v>
       </c>
       <c r="G11">
-        <v>1.995126130978679</v>
+        <v>2.03037136680104</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.64851054765638</v>
-      </c>
-      <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>15.53159586204094</v>
-      </c>
-      <c r="M11">
-        <v>22.2644162879549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>22.31117243912145</v>
+      </c>
+      <c r="N11">
+        <v>10.04902451654831</v>
+      </c>
+      <c r="O11">
+        <v>19.93507505273812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.32611350952188</v>
+        <v>26.04807155553044</v>
       </c>
       <c r="C12">
-        <v>23.03314059876033</v>
+        <v>17.3362031820233</v>
       </c>
       <c r="D12">
-        <v>4.459656654636618</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>3.628024431072487</v>
       </c>
       <c r="F12">
-        <v>49.93491506128107</v>
+        <v>27.77415923756428</v>
       </c>
       <c r="G12">
-        <v>1.991400248665028</v>
+        <v>2.028175088530948</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.98681011374989</v>
-      </c>
-      <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>15.76495021534002</v>
-      </c>
-      <c r="M12">
-        <v>22.58150848315134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>22.60111746206471</v>
+      </c>
+      <c r="N12">
+        <v>9.973176446178297</v>
+      </c>
+      <c r="O12">
+        <v>20.1155251803064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.24151780483208</v>
+        <v>25.97463610711232</v>
       </c>
       <c r="C13">
-        <v>22.9636790190783</v>
+        <v>17.28896384925162</v>
       </c>
       <c r="D13">
-        <v>4.458180432705018</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>3.627887469137623</v>
       </c>
       <c r="F13">
-        <v>49.79588538641156</v>
+        <v>27.70941130304865</v>
       </c>
       <c r="G13">
-        <v>1.992203325912709</v>
+        <v>2.028647721977361</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.91386797541303</v>
-      </c>
-      <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>15.71479120921545</v>
-      </c>
-      <c r="M13">
-        <v>22.51337711330118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>22.53890750194956</v>
+      </c>
+      <c r="N13">
+        <v>9.98950747683403</v>
+      </c>
+      <c r="O13">
+        <v>20.07653383833194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.96477014150194</v>
+        <v>25.73407704205472</v>
       </c>
       <c r="C14">
-        <v>22.73652440998339</v>
+        <v>17.1342348938562</v>
       </c>
       <c r="D14">
-        <v>4.453546414085962</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>3.627455949176545</v>
       </c>
       <c r="F14">
-        <v>49.34223464536896</v>
+        <v>27.49847066239767</v>
       </c>
       <c r="G14">
-        <v>1.994819876738131</v>
+        <v>2.030190505703062</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.67630568795411</v>
-      </c>
-      <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>15.55083873939752</v>
-      </c>
-      <c r="M14">
-        <v>22.29057641469905</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>22.33513243232562</v>
+      </c>
+      <c r="N14">
+        <v>10.0427824530919</v>
+      </c>
+      <c r="O14">
+        <v>19.94986308380023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.79458270012183</v>
+        <v>25.58590241445841</v>
       </c>
       <c r="C15">
-        <v>22.5968971816838</v>
+        <v>17.03894129848103</v>
       </c>
       <c r="D15">
-        <v>4.450843812912213</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>3.627203161856869</v>
       </c>
       <c r="F15">
-        <v>49.06415993020117</v>
+        <v>27.36943004133684</v>
       </c>
       <c r="G15">
-        <v>1.99642086048166</v>
+        <v>2.031136639594345</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.53102930559939</v>
-      </c>
-      <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>15.45012024226627</v>
-      </c>
-      <c r="M15">
-        <v>22.1536285881228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>22.20962424401765</v>
+      </c>
+      <c r="N15">
+        <v>10.07542841318611</v>
+      </c>
+      <c r="O15">
+        <v>19.87264833249128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.80867351623176</v>
+        <v>24.72400468376583</v>
       </c>
       <c r="C16">
-        <v>21.78894704901338</v>
+        <v>16.48484344322457</v>
       </c>
       <c r="D16">
-        <v>4.437333528829064</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>3.625927162038292</v>
       </c>
       <c r="F16">
-        <v>47.46707993794134</v>
+        <v>26.63252647225997</v>
       </c>
       <c r="G16">
-        <v>2.005575273642943</v>
+        <v>2.036577568471274</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.70188744207159</v>
-      </c>
-      <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>14.86820818467383</v>
-      </c>
-      <c r="M16">
-        <v>21.36123876889958</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>21.47971222097113</v>
+      </c>
+      <c r="N16">
+        <v>10.26276665226253</v>
+      </c>
+      <c r="O16">
+        <v>19.43588410651435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.19400912656902</v>
+        <v>24.18373739413788</v>
       </c>
       <c r="C17">
-        <v>21.28600777858251</v>
+        <v>16.13769767486119</v>
       </c>
       <c r="D17">
-        <v>4.430700827000781</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>3.625294233375326</v>
       </c>
       <c r="F17">
-        <v>46.4837042905419</v>
+        <v>26.18279787123709</v>
       </c>
       <c r="G17">
-        <v>2.011179698766689</v>
+        <v>2.039934086219233</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.19600142518252</v>
-      </c>
-      <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>14.50674571352922</v>
-      </c>
-      <c r="M17">
-        <v>20.8680431016896</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>21.02230538920691</v>
+      </c>
+      <c r="N17">
+        <v>10.37797558976469</v>
+      </c>
+      <c r="O17">
+        <v>19.17303149685837</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.83672137570159</v>
+        <v>23.86870695524668</v>
       </c>
       <c r="C18">
-        <v>20.99393006488962</v>
+        <v>15.93534371454895</v>
       </c>
       <c r="D18">
-        <v>4.427453205477013</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>3.62498372069638</v>
       </c>
       <c r="F18">
-        <v>45.91660609123822</v>
+        <v>25.92500658384104</v>
       </c>
       <c r="G18">
-        <v>2.014401413351478</v>
+        <v>2.041872188436037</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.9059600242724</v>
-      </c>
-      <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>14.29710151610992</v>
-      </c>
-      <c r="M18">
-        <v>20.58164763496028</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>20.75563851520564</v>
+      </c>
+      <c r="N18">
+        <v>10.444365180659</v>
+      </c>
+      <c r="O18">
+        <v>19.02371028763588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.71509403117003</v>
+        <v>23.76130291631492</v>
       </c>
       <c r="C19">
-        <v>20.89454563419513</v>
+        <v>15.86636628390942</v>
       </c>
       <c r="D19">
-        <v>4.426447352380702</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>3.624887644610689</v>
       </c>
       <c r="F19">
-        <v>45.72432832403477</v>
+        <v>25.83787673360626</v>
       </c>
       <c r="G19">
-        <v>2.0154921385602</v>
+        <v>2.042529748524878</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.80790991177475</v>
-      </c>
-      <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>14.22581214140993</v>
-      </c>
-      <c r="M19">
-        <v>20.48420097735479</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>20.66473141861512</v>
+      </c>
+      <c r="N19">
+        <v>10.46686681209838</v>
+      </c>
+      <c r="O19">
+        <v>18.97347261224781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.25982633528289</v>
+        <v>24.24169195578813</v>
       </c>
       <c r="C20">
-        <v>21.33983370336272</v>
+        <v>16.17492915693757</v>
       </c>
       <c r="D20">
-        <v>4.431347280743987</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>3.625356036522558</v>
       </c>
       <c r="F20">
-        <v>46.58853699787585</v>
+        <v>26.23058168015585</v>
       </c>
       <c r="G20">
-        <v>2.010583337181495</v>
+        <v>2.039576015087608</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.24975579222512</v>
-      </c>
-      <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>14.5454020982385</v>
-      </c>
-      <c r="M20">
-        <v>20.9208238453615</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>21.071366618952</v>
+      </c>
+      <c r="N20">
+        <v>10.36569897164375</v>
+      </c>
+      <c r="O20">
+        <v>19.20081953189618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.0461967361583</v>
+        <v>25.80490676109202</v>
       </c>
       <c r="C21">
-        <v>22.80334623968164</v>
+        <v>17.17979023193239</v>
       </c>
       <c r="D21">
-        <v>4.454878962896058</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>3.62758028372104</v>
       </c>
       <c r="F21">
-        <v>49.47552344373798</v>
+        <v>27.56039435332878</v>
       </c>
       <c r="G21">
-        <v>1.994051708383627</v>
+        <v>2.029737120328155</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.746033351496</v>
-      </c>
-      <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>15.5990559794725</v>
-      </c>
-      <c r="M21">
-        <v>22.35611682429218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>22.39512968057559</v>
+      </c>
+      <c r="N21">
+        <v>10.02713161135981</v>
+      </c>
+      <c r="O21">
+        <v>19.98699119951978</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.18327254119318</v>
+        <v>26.78948776501055</v>
       </c>
       <c r="C22">
-        <v>23.73763647385082</v>
+        <v>17.81327452488696</v>
       </c>
       <c r="D22">
-        <v>4.476226263285846</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>3.629545756702925</v>
       </c>
       <c r="F22">
-        <v>51.39854899934838</v>
+        <v>28.43700983290157</v>
       </c>
       <c r="G22">
-        <v>1.983176654998828</v>
+        <v>2.023359399968691</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>31.73431385491823</v>
-      </c>
-      <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>16.27430923455497</v>
-      </c>
-      <c r="M22">
-        <v>23.27253829403907</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>23.22929037634572</v>
+      </c>
+      <c r="N22">
+        <v>9.806518428683312</v>
+      </c>
+      <c r="O22">
+        <v>20.51755641181869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.57902072822603</v>
+        <v>26.26733623763228</v>
       </c>
       <c r="C23">
-        <v>23.24087435960951</v>
+        <v>17.47726557178778</v>
       </c>
       <c r="D23">
-        <v>4.464238559592613</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>3.628448012721329</v>
       </c>
       <c r="F23">
-        <v>50.35154918660481</v>
+        <v>27.96846296970683</v>
       </c>
       <c r="G23">
-        <v>1.988990253262928</v>
+        <v>2.026759239075972</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>31.20577614642836</v>
-      </c>
-      <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>15.91502419445649</v>
-      </c>
-      <c r="M23">
-        <v>22.78526705262423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>22.78687469486983</v>
+      </c>
+      <c r="N23">
+        <v>9.924226272127846</v>
+      </c>
+      <c r="O23">
+        <v>20.23283945474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.23008258199899</v>
+        <v>24.21550448847977</v>
       </c>
       <c r="C24">
-        <v>21.31550816148658</v>
+        <v>16.15810545515494</v>
       </c>
       <c r="D24">
-        <v>4.431053266943087</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>3.625327929458883</v>
       </c>
       <c r="F24">
-        <v>46.54114759498898</v>
+        <v>26.20897623636416</v>
       </c>
       <c r="G24">
-        <v>2.010852952757046</v>
+        <v>2.039737872742159</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.22545097361315</v>
-      </c>
-      <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>14.52793128331576</v>
-      </c>
-      <c r="M24">
-        <v>20.89697057783702</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>21.04919756353009</v>
+      </c>
+      <c r="N24">
+        <v>10.37124874483932</v>
+      </c>
+      <c r="O24">
+        <v>19.18825096750793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.55178912562338</v>
+        <v>21.83798150960191</v>
       </c>
       <c r="C25">
-        <v>19.13049673382189</v>
+        <v>14.63222630008965</v>
       </c>
       <c r="D25">
-        <v>4.416560323734146</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>3.623996712610205</v>
       </c>
       <c r="F25">
-        <v>42.37369491852162</v>
+        <v>24.34540759612943</v>
       </c>
       <c r="G25">
-        <v>2.034388436425731</v>
+        <v>2.054031840295044</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.12466294861971</v>
-      </c>
-      <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>13.15766926347192</v>
-      </c>
-      <c r="M25">
-        <v>18.75497115562901</v>
+        <v>19.03759424130601</v>
+      </c>
+      <c r="N25">
+        <v>10.85841093826841</v>
+      </c>
+      <c r="O25">
+        <v>18.13281185128024</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.94059250901294</v>
+        <v>14.23215774094281</v>
       </c>
       <c r="C2">
-        <v>13.41697707348742</v>
+        <v>8.198628202764084</v>
       </c>
       <c r="D2">
-        <v>3.624625035069696</v>
+        <v>5.846755675585046</v>
       </c>
       <c r="F2">
-        <v>23.00696742843187</v>
+        <v>12.43124202925521</v>
       </c>
       <c r="G2">
-        <v>2.064879471854126</v>
+        <v>12.8183538099003</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.120606733959205</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>10.29056688691376</v>
       </c>
       <c r="K2">
-        <v>17.43404795150301</v>
+        <v>12.79629424860703</v>
       </c>
       <c r="N2">
-        <v>11.22359650780427</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>17.41659690215825</v>
+        <v>10.34881383232605</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.56055820318655</v>
+        <v>13.39001917658486</v>
       </c>
       <c r="C3">
-        <v>12.53480678341141</v>
+        <v>7.836916258758794</v>
       </c>
       <c r="D3">
-        <v>3.626003219873022</v>
+        <v>5.550485338128154</v>
       </c>
       <c r="F3">
-        <v>22.12420761692134</v>
+        <v>12.4890213779262</v>
       </c>
       <c r="G3">
-        <v>2.072463505684038</v>
+        <v>13.11979933774836</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.258248999691132</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>10.59949718031462</v>
       </c>
       <c r="K3">
-        <v>16.26901384328049</v>
+        <v>12.14638142686011</v>
       </c>
       <c r="N3">
-        <v>11.47612566329467</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>16.96902737556</v>
+        <v>10.5918964632998</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.66596988579361</v>
+        <v>12.84425407685377</v>
       </c>
       <c r="C4">
-        <v>11.96388708220318</v>
+        <v>7.606000700310735</v>
       </c>
       <c r="D4">
-        <v>3.627306978052273</v>
+        <v>5.359691917414152</v>
       </c>
       <c r="F4">
-        <v>21.59554861976293</v>
+        <v>12.54087087316696</v>
       </c>
       <c r="G4">
-        <v>2.077244088991977</v>
+        <v>13.32970610822397</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.346495924092884</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>10.79534511000871</v>
       </c>
       <c r="K4">
-        <v>15.51449412754135</v>
+        <v>11.72833880727073</v>
       </c>
       <c r="N4">
-        <v>11.63396393761788</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>16.71274703302056</v>
+        <v>10.75013463195694</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.28942620558128</v>
+        <v>12.61469823071879</v>
       </c>
       <c r="C5">
-        <v>11.72383049787362</v>
+        <v>7.509774891432428</v>
       </c>
       <c r="D5">
-        <v>3.627951954821223</v>
+        <v>5.279755828603384</v>
       </c>
       <c r="F5">
-        <v>21.38370177590914</v>
+        <v>12.56593462331629</v>
       </c>
       <c r="G5">
-        <v>2.079224657627419</v>
+        <v>13.4210579822211</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.383384404503404</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>10.87671255374812</v>
       </c>
       <c r="K5">
-        <v>15.19709446196522</v>
+        <v>11.55332330184837</v>
       </c>
       <c r="N5">
-        <v>11.699025449039</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>16.61293985892037</v>
+        <v>10.81679813652498</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.22617392902787</v>
+        <v>12.57615088691027</v>
       </c>
       <c r="C6">
-        <v>11.68352112241264</v>
+        <v>7.493671268195095</v>
       </c>
       <c r="D6">
-        <v>3.628065885797096</v>
+        <v>5.266352034013225</v>
       </c>
       <c r="F6">
-        <v>21.34874813981273</v>
+        <v>12.57032872199973</v>
       </c>
       <c r="G6">
-        <v>2.079555524742759</v>
+        <v>13.43656612137506</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.389565392431782</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10.89031789877147</v>
       </c>
       <c r="K6">
-        <v>15.143788946599</v>
+        <v>11.52398454104832</v>
       </c>
       <c r="N6">
-        <v>11.7098747808539</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>16.59664530881305</v>
+        <v>10.82799709326194</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.66094038624836</v>
+        <v>12.84118706908937</v>
       </c>
       <c r="C7">
-        <v>11.96067961724209</v>
+        <v>7.60471143973999</v>
       </c>
       <c r="D7">
-        <v>3.62731521767424</v>
+        <v>5.358622653709376</v>
       </c>
       <c r="F7">
-        <v>21.59267675336868</v>
+        <v>12.54119320252404</v>
       </c>
       <c r="G7">
-        <v>2.077270666647753</v>
+        <v>13.33091511528303</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.346989675419735</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>10.7964361408225</v>
       </c>
       <c r="K7">
-        <v>15.51025384932197</v>
+        <v>11.72599718308829</v>
       </c>
       <c r="N7">
-        <v>11.63483832654987</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>16.71138230816291</v>
+        <v>10.75102494988019</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.47449277889239</v>
+        <v>13.94777390926708</v>
       </c>
       <c r="C8">
-        <v>13.11884922310248</v>
+        <v>8.075792424408336</v>
       </c>
       <c r="D8">
-        <v>3.625004326898937</v>
+        <v>5.746470632635494</v>
       </c>
       <c r="F8">
-        <v>22.69995137046702</v>
+        <v>12.4476571874181</v>
       </c>
       <c r="G8">
-        <v>2.067469510698684</v>
+        <v>12.91687394543141</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.167283160416231</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>10.39581127600292</v>
       </c>
       <c r="K8">
-        <v>17.04042992264505</v>
+        <v>12.57620912958677</v>
       </c>
       <c r="N8">
-        <v>11.31011611079275</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>17.25841602757811</v>
+        <v>10.43071362183095</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.66130748241273</v>
+        <v>15.88835131062495</v>
       </c>
       <c r="C9">
-        <v>15.16027552667559</v>
+        <v>8.926192480941534</v>
       </c>
       <c r="D9">
-        <v>3.624187186310602</v>
+        <v>6.434940882033059</v>
       </c>
       <c r="F9">
-        <v>24.96827999469953</v>
+        <v>12.40210920961461</v>
       </c>
       <c r="G9">
-        <v>2.049171102880043</v>
+        <v>12.32265977449895</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6.845130576206341</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>9.658794410694183</v>
       </c>
       <c r="K9">
-        <v>19.73394558835752</v>
+        <v>14.0887641965409</v>
       </c>
       <c r="N9">
-        <v>10.69344113218398</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>18.47886078887069</v>
+        <v>9.877926746440565</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.78507609849902</v>
+        <v>17.17283677055381</v>
       </c>
       <c r="C10">
-        <v>16.52409350494817</v>
+        <v>9.502572818503847</v>
       </c>
       <c r="D10">
-        <v>3.626006745317809</v>
+        <v>6.895172063879854</v>
       </c>
       <c r="F10">
-        <v>26.68396122849679</v>
+        <v>12.46312001631994</v>
       </c>
       <c r="G10">
-        <v>2.036195538920755</v>
+        <v>12.04944912077149</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6.627916598485021</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>9.146669215928471</v>
       </c>
       <c r="K10">
-        <v>21.53142345768802</v>
+        <v>15.10167280495078</v>
       </c>
       <c r="N10">
-        <v>10.24963591342404</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>19.46613040571021</v>
+        <v>9.524196079484833</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.7057905678279</v>
+        <v>17.72644357113265</v>
       </c>
       <c r="C11">
-        <v>17.11604260828796</v>
+        <v>9.753708367027453</v>
       </c>
       <c r="D11">
-        <v>3.627406928085717</v>
+        <v>7.094424019748338</v>
       </c>
       <c r="F11">
-        <v>27.47378425131497</v>
+        <v>12.5134335723837</v>
       </c>
       <c r="G11">
-        <v>2.03037136680104</v>
+        <v>11.96766785453319</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6.533614129059519</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>8.920071343466168</v>
       </c>
       <c r="K11">
-        <v>22.31117243912145</v>
+        <v>15.54056279676085</v>
       </c>
       <c r="N11">
-        <v>10.04902451654831</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>19.93507505273812</v>
+        <v>9.376357445534591</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.04807155553044</v>
+        <v>17.93166768675047</v>
       </c>
       <c r="C12">
-        <v>17.3362031820233</v>
+        <v>9.847180504810295</v>
       </c>
       <c r="D12">
-        <v>3.628024431072487</v>
+        <v>7.168409562627089</v>
       </c>
       <c r="F12">
-        <v>27.77415923756428</v>
+        <v>12.53588091388356</v>
       </c>
       <c r="G12">
-        <v>2.028175088530948</v>
+        <v>11.9434022095693</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6.498581955684227</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>8.835188246985446</v>
       </c>
       <c r="K12">
-        <v>22.60111746206471</v>
+        <v>15.70358103675028</v>
       </c>
       <c r="N12">
-        <v>9.973176446178297</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>20.1155251803064</v>
+        <v>9.322420850999331</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.97463610711232</v>
+        <v>17.88766525361319</v>
       </c>
       <c r="C13">
-        <v>17.28896384925162</v>
+        <v>9.827122491882117</v>
       </c>
       <c r="D13">
-        <v>3.627887469137623</v>
+        <v>7.152540856748211</v>
       </c>
       <c r="F13">
-        <v>27.70941130304865</v>
+        <v>12.53089325455351</v>
       </c>
       <c r="G13">
-        <v>2.028647721977361</v>
+        <v>11.94832080671077</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.506096078703235</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>8.853428019020404</v>
       </c>
       <c r="K13">
-        <v>22.53890750194956</v>
+        <v>15.66861398021446</v>
       </c>
       <c r="N13">
-        <v>9.98950747683403</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>20.07653383833194</v>
+        <v>9.333943165274741</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.73407704205472</v>
+        <v>17.74341592835066</v>
       </c>
       <c r="C14">
-        <v>17.1342348938562</v>
+        <v>9.761431175467767</v>
       </c>
       <c r="D14">
-        <v>3.627455949176545</v>
+        <v>7.10054031348198</v>
       </c>
       <c r="F14">
-        <v>27.49847066239767</v>
+        <v>12.51521148291069</v>
       </c>
       <c r="G14">
-        <v>2.030190505703062</v>
+        <v>11.96553380689846</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.530718233843364</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>8.913069359691688</v>
       </c>
       <c r="K14">
-        <v>22.33513243232562</v>
+        <v>15.55403828579344</v>
       </c>
       <c r="N14">
-        <v>10.0427824530919</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>19.94986308380023</v>
+        <v>9.371878004474855</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.58590241445841</v>
+        <v>17.65448428028627</v>
       </c>
       <c r="C15">
-        <v>17.03894129848103</v>
+        <v>9.720980448305538</v>
       </c>
       <c r="D15">
-        <v>3.627203161856869</v>
+        <v>7.068497132391303</v>
       </c>
       <c r="F15">
-        <v>27.36943004133684</v>
+        <v>12.50605225767105</v>
       </c>
       <c r="G15">
-        <v>2.031136639594345</v>
+        <v>11.97696763360558</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.545889286771679</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>8.949722166639337</v>
       </c>
       <c r="K15">
-        <v>22.20962424401765</v>
+        <v>15.48344245681834</v>
       </c>
       <c r="N15">
-        <v>10.07542841318611</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>19.87264833249128</v>
+        <v>9.395386016550813</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.72400468376583</v>
+        <v>17.13603923884836</v>
       </c>
       <c r="C16">
-        <v>16.48484344322457</v>
+        <v>9.485934601491364</v>
       </c>
       <c r="D16">
-        <v>3.625927162038292</v>
+        <v>6.881945835305496</v>
       </c>
       <c r="F16">
-        <v>26.63252647225997</v>
+        <v>12.46029906610951</v>
       </c>
       <c r="G16">
-        <v>2.036577568471274</v>
+        <v>12.05569965325766</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.634172660270808</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>9.161606710146422</v>
       </c>
       <c r="K16">
-        <v>21.47971222097113</v>
+        <v>15.07254687227233</v>
       </c>
       <c r="N16">
-        <v>10.26276665226253</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>19.43588410651435</v>
+        <v>9.534134562209392</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.18373739413788</v>
+        <v>16.81012282283459</v>
       </c>
       <c r="C17">
-        <v>16.13769767486119</v>
+        <v>9.338879608328206</v>
       </c>
       <c r="D17">
-        <v>3.625294233375326</v>
+        <v>6.76490270289497</v>
       </c>
       <c r="F17">
-        <v>26.18279787123709</v>
+        <v>12.43812063785145</v>
       </c>
       <c r="G17">
-        <v>2.039934086219233</v>
+        <v>12.11530706774452</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.689506304667566</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>9.293226970961053</v>
       </c>
       <c r="K17">
-        <v>21.02230538920691</v>
+        <v>14.81484347076887</v>
       </c>
       <c r="N17">
-        <v>10.37797558976469</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>19.17303149685837</v>
+        <v>9.622713340841205</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.86870695524668</v>
+        <v>16.61977297812447</v>
       </c>
       <c r="C18">
-        <v>15.93534371454895</v>
+        <v>9.253257850987229</v>
       </c>
       <c r="D18">
-        <v>3.62498372069638</v>
+        <v>6.69663152976111</v>
       </c>
       <c r="F18">
-        <v>25.92500658384104</v>
+        <v>12.42747941249556</v>
       </c>
       <c r="G18">
-        <v>2.041872188436037</v>
+        <v>12.15355667503459</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.721755150667125</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>9.369530266483572</v>
       </c>
       <c r="K18">
-        <v>20.75563851520564</v>
+        <v>14.66456039877193</v>
       </c>
       <c r="N18">
-        <v>10.444365180659</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>19.02371028763588</v>
+        <v>9.6748810668002</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.76130291631492</v>
+        <v>16.55482726497948</v>
       </c>
       <c r="C19">
-        <v>15.86636628390942</v>
+        <v>9.224090483485291</v>
       </c>
       <c r="D19">
-        <v>3.624887644610689</v>
+        <v>6.673353206137174</v>
       </c>
       <c r="F19">
-        <v>25.83787673360626</v>
+        <v>12.42423494467763</v>
       </c>
       <c r="G19">
-        <v>2.042529748524878</v>
+        <v>12.16717024952861</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>6.732745771037584</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>9.395467926852016</v>
       </c>
       <c r="K19">
-        <v>20.66473141861512</v>
+        <v>14.61332467552263</v>
       </c>
       <c r="N19">
-        <v>10.46686681209838</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>18.97347261224781</v>
+        <v>9.692748875851644</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.24169195578813</v>
+        <v>16.8451164345231</v>
       </c>
       <c r="C20">
-        <v>16.17492915693757</v>
+        <v>9.354641749203671</v>
       </c>
       <c r="D20">
-        <v>3.625356036522558</v>
+        <v>6.777460683132441</v>
       </c>
       <c r="F20">
-        <v>26.23058168015585</v>
+        <v>12.44026151513633</v>
       </c>
       <c r="G20">
-        <v>2.039576015087608</v>
+        <v>12.10854709426529</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>6.683572026528839</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>9.27915375196665</v>
       </c>
       <c r="K20">
-        <v>21.071366618952</v>
+        <v>14.84248979288171</v>
       </c>
       <c r="N20">
-        <v>10.36569897164375</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>19.20081953189618</v>
+        <v>9.613156617421494</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.80490676109202</v>
+        <v>17.7859052216033</v>
       </c>
       <c r="C21">
-        <v>17.17979023193239</v>
+        <v>9.780770730369909</v>
       </c>
       <c r="D21">
-        <v>3.62758028372104</v>
+        <v>7.115854027884025</v>
       </c>
       <c r="F21">
-        <v>27.56039435332878</v>
+        <v>12.51972434009278</v>
       </c>
       <c r="G21">
-        <v>2.029737120328155</v>
+        <v>11.96029133883754</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6.523467446244926</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>8.895526061405382</v>
       </c>
       <c r="K21">
-        <v>22.39512968057559</v>
+        <v>15.58777845528866</v>
       </c>
       <c r="N21">
-        <v>10.02713161135981</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>19.98699119951978</v>
+        <v>9.360678647965297</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.78948776501055</v>
+        <v>18.37503766365764</v>
       </c>
       <c r="C22">
-        <v>17.81327452488696</v>
+        <v>10.04977281097763</v>
       </c>
       <c r="D22">
-        <v>3.629545756702925</v>
+        <v>7.328460369768806</v>
       </c>
       <c r="F22">
-        <v>28.43700983290157</v>
+        <v>12.59150394231916</v>
       </c>
       <c r="G22">
-        <v>2.023359399968691</v>
+        <v>11.90273348203843</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6.422799692167477</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>8.650200969596202</v>
       </c>
       <c r="K22">
-        <v>23.22929037634572</v>
+        <v>16.0563245849274</v>
       </c>
       <c r="N22">
-        <v>9.806518428683312</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>20.51755641181869</v>
+        <v>9.207691502091761</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.26733623763228</v>
+        <v>18.06295845422584</v>
       </c>
       <c r="C23">
-        <v>17.47726557178778</v>
+        <v>9.90708058340754</v>
       </c>
       <c r="D23">
-        <v>3.628448012721329</v>
+        <v>7.21577430376919</v>
       </c>
       <c r="F23">
-        <v>27.96846296970683</v>
+        <v>12.55133198103334</v>
       </c>
       <c r="G23">
-        <v>2.026759239075972</v>
+        <v>11.92966158860511</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6.476153680047693</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>8.780637256263619</v>
       </c>
       <c r="K23">
-        <v>22.78687469486983</v>
+        <v>15.80795762569572</v>
       </c>
       <c r="N23">
-        <v>9.924226272127846</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>20.23283945474</v>
+        <v>9.288183235539577</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.21550448847977</v>
+        <v>16.82930509278838</v>
       </c>
       <c r="C24">
-        <v>16.15810545515494</v>
+        <v>9.347519039818765</v>
       </c>
       <c r="D24">
-        <v>3.625327929458883</v>
+        <v>6.771786276436524</v>
       </c>
       <c r="F24">
-        <v>26.20897623636416</v>
+        <v>12.43928706566269</v>
       </c>
       <c r="G24">
-        <v>2.039737872742159</v>
+        <v>12.11159092488417</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6.686253555337629</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>9.285514283013582</v>
       </c>
       <c r="K24">
-        <v>21.04919756353009</v>
+        <v>14.82999750995301</v>
       </c>
       <c r="N24">
-        <v>10.37124874483932</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>19.18825096750793</v>
+        <v>9.617473353977662</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.83798150960191</v>
+        <v>15.38812587751816</v>
       </c>
       <c r="C25">
-        <v>14.63222630008965</v>
+        <v>8.704415040745033</v>
       </c>
       <c r="D25">
-        <v>3.623996712610205</v>
+        <v>6.256604433129189</v>
       </c>
       <c r="F25">
-        <v>24.34540759612943</v>
+        <v>12.39856621725174</v>
       </c>
       <c r="G25">
-        <v>2.054031840295044</v>
+        <v>12.45704617810964</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6.928947109068541</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>9.853011013351674</v>
       </c>
       <c r="K25">
-        <v>19.03759424130601</v>
+        <v>13.69662144572833</v>
       </c>
       <c r="N25">
-        <v>10.85841093826841</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>18.13281185128024</v>
+        <v>10.01878878971721</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.23215774094281</v>
+        <v>8.678923347133891</v>
       </c>
       <c r="C2">
-        <v>8.198628202764084</v>
+        <v>6.242821631731166</v>
       </c>
       <c r="D2">
-        <v>5.846755675585046</v>
+        <v>4.609631130861245</v>
       </c>
       <c r="F2">
-        <v>12.43124202925521</v>
+        <v>19.44384730135743</v>
       </c>
       <c r="G2">
-        <v>12.8183538099003</v>
+        <v>20.33466993852254</v>
       </c>
       <c r="H2">
-        <v>7.120606733959205</v>
+        <v>12.38673335610381</v>
       </c>
       <c r="I2">
-        <v>10.29056688691376</v>
+        <v>17.49699073661506</v>
       </c>
       <c r="K2">
-        <v>12.79629424860703</v>
+        <v>9.110013661397437</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.34881383232605</v>
+        <v>17.6977912847671</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.39001917658486</v>
+        <v>8.253335560999284</v>
       </c>
       <c r="C3">
-        <v>7.836916258758794</v>
+        <v>6.084638369732843</v>
       </c>
       <c r="D3">
-        <v>5.550485338128154</v>
+        <v>4.479888746756192</v>
       </c>
       <c r="F3">
-        <v>12.4890213779262</v>
+        <v>19.54790552534374</v>
       </c>
       <c r="G3">
-        <v>13.11979933774836</v>
+        <v>20.51844023474209</v>
       </c>
       <c r="H3">
-        <v>7.258248999691132</v>
+        <v>12.44244137500632</v>
       </c>
       <c r="I3">
-        <v>10.59949718031462</v>
+        <v>17.60918362277</v>
       </c>
       <c r="K3">
-        <v>12.14638142686011</v>
+        <v>8.801715088312658</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.5918964632998</v>
+        <v>17.80569547209395</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.84425407685377</v>
+        <v>7.9802634063928</v>
       </c>
       <c r="C4">
-        <v>7.606000700310735</v>
+        <v>5.985018644691126</v>
       </c>
       <c r="D4">
-        <v>5.359691917414152</v>
+        <v>4.397498209306306</v>
       </c>
       <c r="F4">
-        <v>12.54087087316696</v>
+        <v>19.61757639548159</v>
       </c>
       <c r="G4">
-        <v>13.32970610822397</v>
+        <v>20.6392528311684</v>
       </c>
       <c r="H4">
-        <v>7.346495924092884</v>
+        <v>12.47857748138293</v>
       </c>
       <c r="I4">
-        <v>10.79534511000871</v>
+        <v>17.68165098023638</v>
       </c>
       <c r="K4">
-        <v>11.72833880727073</v>
+        <v>8.605587141057796</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.75013463195694</v>
+        <v>17.87591744838307</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.61469823071879</v>
+        <v>7.866142909426904</v>
       </c>
       <c r="C5">
-        <v>7.509774891432428</v>
+        <v>5.943840244741648</v>
       </c>
       <c r="D5">
-        <v>5.279755828603384</v>
+        <v>4.363268052732776</v>
       </c>
       <c r="F5">
-        <v>12.56593462331629</v>
+        <v>19.6474166387054</v>
       </c>
       <c r="G5">
-        <v>13.4210579822211</v>
+        <v>20.69048370412338</v>
       </c>
       <c r="H5">
-        <v>7.383384404503404</v>
+        <v>12.49378970485923</v>
       </c>
       <c r="I5">
-        <v>10.87671255374812</v>
+        <v>17.71208452441557</v>
       </c>
       <c r="K5">
-        <v>11.55332330184837</v>
+        <v>8.524029457145437</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.81679813652498</v>
+        <v>17.90553191869763</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.57615088691027</v>
+        <v>7.847025445206893</v>
       </c>
       <c r="C6">
-        <v>7.493671268195095</v>
+        <v>5.93696878175713</v>
       </c>
       <c r="D6">
-        <v>5.266352034013225</v>
+        <v>4.357545527165525</v>
       </c>
       <c r="F6">
-        <v>12.57032872199973</v>
+        <v>19.65245896561333</v>
       </c>
       <c r="G6">
-        <v>13.43656612137506</v>
+        <v>20.69911106871195</v>
       </c>
       <c r="H6">
-        <v>7.389565392431782</v>
+        <v>12.49634508990375</v>
       </c>
       <c r="I6">
-        <v>10.89031789877147</v>
+        <v>17.7171925644794</v>
       </c>
       <c r="K6">
-        <v>11.52398454104832</v>
+        <v>8.510390802109026</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.82799709326194</v>
+        <v>17.9105097001178</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.84118706908937</v>
+        <v>7.978735674821181</v>
       </c>
       <c r="C7">
-        <v>7.60471143973999</v>
+        <v>5.98446559590481</v>
       </c>
       <c r="D7">
-        <v>5.358622653709376</v>
+        <v>4.397039180491772</v>
       </c>
       <c r="F7">
-        <v>12.54119320252404</v>
+        <v>19.6179729710134</v>
       </c>
       <c r="G7">
-        <v>13.33091511528303</v>
+        <v>20.63993566493239</v>
       </c>
       <c r="H7">
-        <v>7.346989675419735</v>
+        <v>12.47878066790836</v>
       </c>
       <c r="I7">
-        <v>10.7964361408225</v>
+        <v>17.6820577605413</v>
       </c>
       <c r="K7">
-        <v>11.72599718308829</v>
+        <v>8.604493724195768</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.75102494988019</v>
+        <v>17.87631279602788</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.94777390926708</v>
+        <v>8.534684865487211</v>
       </c>
       <c r="C8">
-        <v>8.075792424408336</v>
+        <v>6.188823717231815</v>
       </c>
       <c r="D8">
-        <v>5.746470632635494</v>
+        <v>4.565479805233194</v>
       </c>
       <c r="F8">
-        <v>12.4476571874181</v>
+        <v>19.47852463685245</v>
       </c>
       <c r="G8">
-        <v>12.91687394543141</v>
+        <v>20.3963740077643</v>
       </c>
       <c r="H8">
-        <v>7.167283160416231</v>
+        <v>12.40554118799672</v>
       </c>
       <c r="I8">
-        <v>10.39581127600292</v>
+        <v>17.53493302561625</v>
       </c>
       <c r="K8">
-        <v>12.57620912958677</v>
+        <v>9.005177782536233</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.43071362183095</v>
+        <v>17.73417334865431</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.88835131062495</v>
+        <v>9.527430791145902</v>
       </c>
       <c r="C9">
-        <v>8.926192480941534</v>
+        <v>6.56796155626095</v>
       </c>
       <c r="D9">
-        <v>6.434940882033059</v>
+        <v>4.872926716794391</v>
       </c>
       <c r="F9">
-        <v>12.40210920961461</v>
+        <v>19.25110829435704</v>
       </c>
       <c r="G9">
-        <v>12.32265977449895</v>
+        <v>19.98236895495086</v>
       </c>
       <c r="H9">
-        <v>6.845130576206341</v>
+        <v>12.27720216076382</v>
       </c>
       <c r="I9">
-        <v>9.658794410694183</v>
+        <v>17.27473139334875</v>
       </c>
       <c r="K9">
-        <v>14.0887641965409</v>
+        <v>9.73346501172376</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>9.877926746440565</v>
+        <v>17.48689970813047</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.17283677055381</v>
+        <v>10.19289934999201</v>
       </c>
       <c r="C10">
-        <v>9.502572818503847</v>
+        <v>6.831124475146631</v>
       </c>
       <c r="D10">
-        <v>6.895172063879854</v>
+        <v>5.083414919929545</v>
       </c>
       <c r="F10">
-        <v>12.46312001631994</v>
+        <v>19.11234978400127</v>
       </c>
       <c r="G10">
-        <v>12.04944912077149</v>
+        <v>19.71744202342785</v>
       </c>
       <c r="H10">
-        <v>6.627916598485021</v>
+        <v>12.1921731105756</v>
       </c>
       <c r="I10">
-        <v>9.146669215928471</v>
+        <v>17.10067836147254</v>
       </c>
       <c r="K10">
-        <v>15.10167280495078</v>
+        <v>10.22973138872589</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.524196079484833</v>
+        <v>17.32437147368523</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.72644357113265</v>
+        <v>10.48107541979091</v>
       </c>
       <c r="C11">
-        <v>9.753708367027453</v>
+        <v>6.947093521408311</v>
       </c>
       <c r="D11">
-        <v>7.094424019748338</v>
+        <v>5.175568946027497</v>
       </c>
       <c r="F11">
-        <v>12.5134335723837</v>
+        <v>19.05542900577339</v>
       </c>
       <c r="G11">
-        <v>11.96766785453319</v>
+        <v>19.60554532532619</v>
       </c>
       <c r="H11">
-        <v>6.533614129059519</v>
+        <v>12.15549067171331</v>
       </c>
       <c r="I11">
-        <v>8.920071343466168</v>
+        <v>17.0251840898772</v>
       </c>
       <c r="K11">
-        <v>15.54056279676085</v>
+        <v>10.44641870060795</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>9.376357445534591</v>
+        <v>17.25458349192579</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.93166768675047</v>
+        <v>10.58806426946569</v>
       </c>
       <c r="C12">
-        <v>9.847180504810295</v>
+        <v>6.990439219169758</v>
       </c>
       <c r="D12">
-        <v>7.168409562627089</v>
+        <v>5.209929055513552</v>
       </c>
       <c r="F12">
-        <v>12.53588091388356</v>
+        <v>19.03477068558838</v>
       </c>
       <c r="G12">
-        <v>11.9434022095693</v>
+        <v>19.56442174964505</v>
       </c>
       <c r="H12">
-        <v>6.498581955684227</v>
+        <v>12.14188643214181</v>
       </c>
       <c r="I12">
-        <v>8.835188246985446</v>
+        <v>16.99712385090075</v>
       </c>
       <c r="K12">
-        <v>15.70358103675028</v>
+        <v>10.52712320400891</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>9.322420850999331</v>
+        <v>17.22875266681296</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.88766525361319</v>
+        <v>10.56511798514412</v>
       </c>
       <c r="C13">
-        <v>9.827122491882117</v>
+        <v>6.981129725089567</v>
       </c>
       <c r="D13">
-        <v>7.152540856748211</v>
+        <v>5.202553141717395</v>
       </c>
       <c r="F13">
-        <v>12.53089325455351</v>
+        <v>19.03917988674763</v>
       </c>
       <c r="G13">
-        <v>11.94832080671077</v>
+        <v>19.57322272720277</v>
       </c>
       <c r="H13">
-        <v>6.506096078703235</v>
+        <v>12.14480361212378</v>
       </c>
       <c r="I13">
-        <v>8.853428019020404</v>
+        <v>17.0031436804518</v>
       </c>
       <c r="K13">
-        <v>15.66861398021446</v>
+        <v>10.50980277653305</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>9.333943165274741</v>
+        <v>17.23428927206997</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.74341592835066</v>
+        <v>10.48992051680834</v>
       </c>
       <c r="C14">
-        <v>9.761431175467767</v>
+        <v>6.950671172923789</v>
       </c>
       <c r="D14">
-        <v>7.10054031348198</v>
+        <v>5.178406630369749</v>
       </c>
       <c r="F14">
-        <v>12.51521148291069</v>
+        <v>19.0537114431356</v>
       </c>
       <c r="G14">
-        <v>11.96553380689846</v>
+        <v>19.60213696976492</v>
       </c>
       <c r="H14">
-        <v>6.530718233843364</v>
+        <v>12.15436570249964</v>
       </c>
       <c r="I14">
-        <v>8.913069359691688</v>
+        <v>17.02286498968176</v>
       </c>
       <c r="K14">
-        <v>15.55403828579344</v>
+        <v>10.45308561546245</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.371878004474855</v>
+        <v>17.25244642177617</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.65448428028627</v>
+        <v>10.44358038204577</v>
       </c>
       <c r="C15">
-        <v>9.720980448305538</v>
+        <v>6.931939431594762</v>
       </c>
       <c r="D15">
-        <v>7.068497132391303</v>
+        <v>5.16354577590799</v>
       </c>
       <c r="F15">
-        <v>12.50605225767105</v>
+        <v>19.06272930698464</v>
       </c>
       <c r="G15">
-        <v>11.97696763360558</v>
+        <v>19.62001076516056</v>
       </c>
       <c r="H15">
-        <v>6.545889286771679</v>
+        <v>12.16026006387713</v>
       </c>
       <c r="I15">
-        <v>8.949722166639337</v>
+        <v>17.03501354205869</v>
       </c>
       <c r="K15">
-        <v>15.48344245681834</v>
+        <v>10.41816759240099</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.395386016550813</v>
+        <v>17.26364586758686</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.13603923884836</v>
+        <v>10.17376955365134</v>
       </c>
       <c r="C16">
-        <v>9.485934601491364</v>
+        <v>6.823467573490409</v>
       </c>
       <c r="D16">
-        <v>6.881945835305496</v>
+        <v>5.077318344470032</v>
       </c>
       <c r="F16">
-        <v>12.46029906610951</v>
+        <v>19.11619487130429</v>
       </c>
       <c r="G16">
-        <v>12.05569965325766</v>
+        <v>19.72492901622777</v>
       </c>
       <c r="H16">
-        <v>6.634172660270808</v>
+        <v>12.19461053598373</v>
       </c>
       <c r="I16">
-        <v>9.161606710146422</v>
+        <v>17.10568604838816</v>
       </c>
       <c r="K16">
-        <v>15.07254687227233</v>
+        <v>10.21538380524018</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.534134562209392</v>
+        <v>17.32901573161573</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.81012282283459</v>
+        <v>10.00448814542142</v>
       </c>
       <c r="C17">
-        <v>9.338879608328206</v>
+        <v>6.755941632624676</v>
       </c>
       <c r="D17">
-        <v>6.76490270289497</v>
+        <v>5.023484711311172</v>
       </c>
       <c r="F17">
-        <v>12.43812063785145</v>
+        <v>19.15058584829779</v>
       </c>
       <c r="G17">
-        <v>12.11530706774452</v>
+        <v>19.79150756410686</v>
       </c>
       <c r="H17">
-        <v>6.689506304667566</v>
+        <v>12.21619461972565</v>
       </c>
       <c r="I17">
-        <v>9.293226970961053</v>
+        <v>17.14998340103729</v>
       </c>
       <c r="K17">
-        <v>14.81484347076887</v>
+        <v>10.08862529649446</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.622713340841205</v>
+        <v>17.37018016520381</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.61977297812447</v>
+        <v>9.905754630423539</v>
       </c>
       <c r="C18">
-        <v>9.253257850987229</v>
+        <v>6.716751645247658</v>
       </c>
       <c r="D18">
-        <v>6.69663152976111</v>
+        <v>4.992183370299171</v>
       </c>
       <c r="F18">
-        <v>12.42747941249556</v>
+        <v>19.17095004055009</v>
       </c>
       <c r="G18">
-        <v>12.15355667503459</v>
+        <v>19.83061252722142</v>
       </c>
       <c r="H18">
-        <v>6.721755150667125</v>
+        <v>12.22879728552724</v>
       </c>
       <c r="I18">
-        <v>9.369530266483572</v>
+        <v>17.17580886771231</v>
       </c>
       <c r="K18">
-        <v>14.66456039877193</v>
+        <v>10.0148661251618</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>9.6748810668002</v>
+        <v>17.39424718022493</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.55482726497948</v>
+        <v>9.872091836258729</v>
       </c>
       <c r="C19">
-        <v>9.224090483485291</v>
+        <v>6.7034233123594</v>
       </c>
       <c r="D19">
-        <v>6.673353206137174</v>
+        <v>4.981527900339097</v>
       </c>
       <c r="F19">
-        <v>12.42423494467763</v>
+        <v>19.17794506533815</v>
       </c>
       <c r="G19">
-        <v>12.16717024952861</v>
+        <v>19.8439917497744</v>
       </c>
       <c r="H19">
-        <v>6.732745771037584</v>
+        <v>12.23309665363767</v>
       </c>
       <c r="I19">
-        <v>9.395467926852016</v>
+        <v>17.18461254739705</v>
       </c>
       <c r="K19">
-        <v>14.61332467552263</v>
+        <v>9.989747887758387</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>9.692748875851644</v>
+        <v>17.40246289577338</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.8451164345231</v>
+        <v>10.02265030725486</v>
       </c>
       <c r="C20">
-        <v>9.354641749203671</v>
+        <v>6.763166427709444</v>
       </c>
       <c r="D20">
-        <v>6.777460683132441</v>
+        <v>5.029250485637374</v>
       </c>
       <c r="F20">
-        <v>12.44026151513633</v>
+        <v>19.14686445537282</v>
       </c>
       <c r="G20">
-        <v>12.10854709426529</v>
+        <v>19.78433618551354</v>
       </c>
       <c r="H20">
-        <v>6.683572026528839</v>
+        <v>12.21387749731238</v>
       </c>
       <c r="I20">
-        <v>9.27915375196665</v>
+        <v>17.14523199314816</v>
       </c>
       <c r="K20">
-        <v>14.84248979288171</v>
+        <v>10.10220739030973</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9.613156617421494</v>
+        <v>17.36575774403538</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.7859052216033</v>
+        <v>10.51206615521509</v>
       </c>
       <c r="C21">
-        <v>9.780770730369909</v>
+        <v>6.959633268576608</v>
       </c>
       <c r="D21">
-        <v>7.115854027884025</v>
+        <v>5.1855137527771</v>
       </c>
       <c r="F21">
-        <v>12.51972434009278</v>
+        <v>19.04941880989638</v>
       </c>
       <c r="G21">
-        <v>11.96029133883754</v>
+        <v>19.5936101716888</v>
       </c>
       <c r="H21">
-        <v>6.523467446244926</v>
+        <v>12.15154931161361</v>
       </c>
       <c r="I21">
-        <v>8.895526061405382</v>
+        <v>17.0170580533134</v>
       </c>
       <c r="K21">
-        <v>15.58777845528866</v>
+        <v>10.46978180775909</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>9.360678647965297</v>
+        <v>17.24709704079514</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.37503766365764</v>
+        <v>10.81945546440679</v>
       </c>
       <c r="C22">
-        <v>10.04977281097763</v>
+        <v>7.084705310971352</v>
       </c>
       <c r="D22">
-        <v>7.328460369768806</v>
+        <v>5.284505501196467</v>
       </c>
       <c r="F22">
-        <v>12.59150394231916</v>
+        <v>18.99095909823779</v>
       </c>
       <c r="G22">
-        <v>11.90273348203843</v>
+        <v>19.47624616622089</v>
       </c>
       <c r="H22">
-        <v>6.422799692167477</v>
+        <v>12.11248449160791</v>
       </c>
       <c r="I22">
-        <v>8.650200969596202</v>
+        <v>16.9363645760312</v>
       </c>
       <c r="K22">
-        <v>16.0563245849274</v>
+        <v>10.70212499241898</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>9.207691502091761</v>
+        <v>17.1730215751014</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.06295845422584</v>
+        <v>10.65654995774345</v>
       </c>
       <c r="C23">
-        <v>9.90708058340754</v>
+        <v>7.018266169020938</v>
       </c>
       <c r="D23">
-        <v>7.21577430376919</v>
+        <v>5.231964450265273</v>
       </c>
       <c r="F23">
-        <v>12.55133198103334</v>
+        <v>19.021680404833</v>
       </c>
       <c r="G23">
-        <v>11.92966158860511</v>
+        <v>19.53821553381036</v>
       </c>
       <c r="H23">
-        <v>6.476153680047693</v>
+        <v>12.13318150733976</v>
       </c>
       <c r="I23">
-        <v>8.780637256263619</v>
+        <v>16.97915139069462</v>
       </c>
       <c r="K23">
-        <v>15.80795762569572</v>
+        <v>10.57885465870405</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>9.288183235539577</v>
+        <v>17.21223894364193</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.82930509278838</v>
+        <v>10.01444358651902</v>
       </c>
       <c r="C24">
-        <v>9.347519039818765</v>
+        <v>6.759901243061968</v>
       </c>
       <c r="D24">
-        <v>6.771786276436524</v>
+        <v>5.02664487295829</v>
       </c>
       <c r="F24">
-        <v>12.43928706566269</v>
+        <v>19.14854505232894</v>
       </c>
       <c r="G24">
-        <v>12.11159092488417</v>
+        <v>19.78757578716164</v>
       </c>
       <c r="H24">
-        <v>6.686253555337629</v>
+        <v>12.21492446498256</v>
       </c>
       <c r="I24">
-        <v>9.285514283013582</v>
+        <v>17.14737898835401</v>
       </c>
       <c r="K24">
-        <v>14.82999750995301</v>
+        <v>10.09606967563678</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>9.617473353977662</v>
+        <v>17.36775587146542</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.38812587751816</v>
+        <v>9.269817749759989</v>
       </c>
       <c r="C25">
-        <v>8.704415040745033</v>
+        <v>6.46794861913327</v>
       </c>
       <c r="D25">
-        <v>6.256604433129189</v>
+        <v>4.792361498962611</v>
       </c>
       <c r="F25">
-        <v>12.39856621725174</v>
+        <v>19.30767470264172</v>
       </c>
       <c r="G25">
-        <v>12.45704617810964</v>
+        <v>20.08751116158841</v>
       </c>
       <c r="H25">
-        <v>6.928947109068541</v>
+        <v>12.31029088358539</v>
       </c>
       <c r="I25">
-        <v>9.853011013351674</v>
+        <v>17.34210679401476</v>
       </c>
       <c r="K25">
-        <v>13.69662144572833</v>
+        <v>9.543014845901734</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.01878878971721</v>
+        <v>17.55042957338966</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.678923347133891</v>
+        <v>14.23215774094282</v>
       </c>
       <c r="C2">
-        <v>6.242821631731166</v>
+        <v>8.19862820276416</v>
       </c>
       <c r="D2">
-        <v>4.609631130861245</v>
+        <v>5.846755675585031</v>
       </c>
       <c r="F2">
-        <v>19.44384730135743</v>
+        <v>12.43124202925517</v>
       </c>
       <c r="G2">
-        <v>20.33466993852254</v>
+        <v>12.81835380990043</v>
       </c>
       <c r="H2">
-        <v>12.38673335610381</v>
+        <v>7.120606733959146</v>
       </c>
       <c r="I2">
-        <v>17.49699073661506</v>
+        <v>10.29056688691373</v>
       </c>
       <c r="K2">
-        <v>9.110013661397437</v>
+        <v>12.79629424860704</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.6977912847671</v>
+        <v>10.34881383232599</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.253335560999284</v>
+        <v>13.39001917658484</v>
       </c>
       <c r="C3">
-        <v>6.084638369732843</v>
+        <v>7.836916258758714</v>
       </c>
       <c r="D3">
-        <v>4.479888746756192</v>
+        <v>5.550485338128112</v>
       </c>
       <c r="F3">
-        <v>19.54790552534374</v>
+        <v>12.4890213779262</v>
       </c>
       <c r="G3">
-        <v>20.51844023474209</v>
+        <v>13.11979933774839</v>
       </c>
       <c r="H3">
-        <v>12.44244137500632</v>
+        <v>7.258248999691132</v>
       </c>
       <c r="I3">
-        <v>17.60918362277</v>
+        <v>10.59949718031463</v>
       </c>
       <c r="K3">
-        <v>8.801715088312658</v>
+        <v>12.14638142686009</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.80569547209395</v>
+        <v>10.5918964632998</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.9802634063928</v>
+        <v>12.84425407685385</v>
       </c>
       <c r="C4">
-        <v>5.985018644691126</v>
+        <v>7.60600070031067</v>
       </c>
       <c r="D4">
-        <v>4.397498209306306</v>
+        <v>5.359691917414104</v>
       </c>
       <c r="F4">
-        <v>19.61757639548159</v>
+        <v>12.5408708731669</v>
       </c>
       <c r="G4">
-        <v>20.6392528311684</v>
+        <v>13.3297061082239</v>
       </c>
       <c r="H4">
-        <v>12.47857748138293</v>
+        <v>7.346495924092766</v>
       </c>
       <c r="I4">
-        <v>17.68165098023638</v>
+        <v>10.79534511000849</v>
       </c>
       <c r="K4">
-        <v>8.605587141057796</v>
+        <v>11.72833880727077</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.87591744838307</v>
+        <v>10.75013463195674</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.866142909426904</v>
+        <v>12.61469823071892</v>
       </c>
       <c r="C5">
-        <v>5.943840244741648</v>
+        <v>7.509774891432343</v>
       </c>
       <c r="D5">
-        <v>4.363268052732776</v>
+        <v>5.279755828603337</v>
       </c>
       <c r="F5">
-        <v>19.6474166387054</v>
+        <v>12.56593462331628</v>
       </c>
       <c r="G5">
-        <v>20.69048370412338</v>
+        <v>13.42105798222086</v>
       </c>
       <c r="H5">
-        <v>12.49378970485923</v>
+        <v>7.383384404503403</v>
       </c>
       <c r="I5">
-        <v>17.71208452441557</v>
+        <v>10.87671255374802</v>
       </c>
       <c r="K5">
-        <v>8.524029457145437</v>
+        <v>11.55332330184846</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.90553191869763</v>
+        <v>10.81679813652495</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.847025445206893</v>
+        <v>12.57615088691023</v>
       </c>
       <c r="C6">
-        <v>5.93696878175713</v>
+        <v>7.493671268195236</v>
       </c>
       <c r="D6">
-        <v>4.357545527165525</v>
+        <v>5.26635203401316</v>
       </c>
       <c r="F6">
-        <v>19.65245896561333</v>
+        <v>12.57032872199975</v>
       </c>
       <c r="G6">
-        <v>20.69911106871195</v>
+        <v>13.43656612137498</v>
       </c>
       <c r="H6">
-        <v>12.49634508990375</v>
+        <v>7.389565392431788</v>
       </c>
       <c r="I6">
-        <v>17.7171925644794</v>
+        <v>10.8903178987715</v>
       </c>
       <c r="K6">
-        <v>8.510390802109026</v>
+        <v>11.52398454104834</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.9105097001178</v>
+        <v>10.82799709326189</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.978735674821181</v>
+        <v>12.84118706908937</v>
       </c>
       <c r="C7">
-        <v>5.98446559590481</v>
+        <v>7.604711439739906</v>
       </c>
       <c r="D7">
-        <v>4.397039180491772</v>
+        <v>5.358622653709454</v>
       </c>
       <c r="F7">
-        <v>19.6179729710134</v>
+        <v>12.54119320252409</v>
       </c>
       <c r="G7">
-        <v>20.63993566493239</v>
+        <v>13.33091511528316</v>
       </c>
       <c r="H7">
-        <v>12.47878066790836</v>
+        <v>7.346989675419866</v>
       </c>
       <c r="I7">
-        <v>17.6820577605413</v>
+        <v>10.79643614082261</v>
       </c>
       <c r="K7">
-        <v>8.604493724195768</v>
+        <v>11.72599718308831</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.87631279602788</v>
+        <v>10.75102494988029</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.534684865487211</v>
+        <v>13.947773909267</v>
       </c>
       <c r="C8">
-        <v>6.188823717231815</v>
+        <v>8.0757924244084</v>
       </c>
       <c r="D8">
-        <v>4.565479805233194</v>
+        <v>5.746470632635472</v>
       </c>
       <c r="F8">
-        <v>19.47852463685245</v>
+        <v>12.44765718741811</v>
       </c>
       <c r="G8">
-        <v>20.3963740077643</v>
+        <v>12.91687394543143</v>
       </c>
       <c r="H8">
-        <v>12.40554118799672</v>
+        <v>7.167283160416235</v>
       </c>
       <c r="I8">
-        <v>17.53493302561625</v>
+        <v>10.39581127600303</v>
       </c>
       <c r="K8">
-        <v>9.005177782536233</v>
+        <v>12.57620912958672</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.73417334865431</v>
+        <v>10.43071362183096</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.527430791145902</v>
+        <v>15.88835131062496</v>
       </c>
       <c r="C9">
-        <v>6.56796155626095</v>
+        <v>8.926192480941522</v>
       </c>
       <c r="D9">
-        <v>4.872926716794391</v>
+        <v>6.434940882033057</v>
       </c>
       <c r="F9">
-        <v>19.25110829435704</v>
+        <v>12.40210920961454</v>
       </c>
       <c r="G9">
-        <v>19.98236895495086</v>
+        <v>12.3226597744988</v>
       </c>
       <c r="H9">
-        <v>12.27720216076382</v>
+        <v>6.84513057620621</v>
       </c>
       <c r="I9">
-        <v>17.27473139334875</v>
+        <v>9.658794410694147</v>
       </c>
       <c r="K9">
-        <v>9.73346501172376</v>
+        <v>14.08876419654089</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.48689970813047</v>
+        <v>9.877926746440496</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.19289934999201</v>
+        <v>17.17283677055378</v>
       </c>
       <c r="C10">
-        <v>6.831124475146631</v>
+        <v>9.502572818503886</v>
       </c>
       <c r="D10">
-        <v>5.083414919929545</v>
+        <v>6.895172063879766</v>
       </c>
       <c r="F10">
-        <v>19.11234978400127</v>
+        <v>12.46312001632005</v>
       </c>
       <c r="G10">
-        <v>19.71744202342785</v>
+        <v>12.04944912077169</v>
       </c>
       <c r="H10">
-        <v>12.1921731105756</v>
+        <v>6.627916598485078</v>
       </c>
       <c r="I10">
-        <v>17.10067836147254</v>
+        <v>9.146669215928663</v>
       </c>
       <c r="K10">
-        <v>10.22973138872589</v>
+        <v>15.10167280495078</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.32437147368523</v>
+        <v>9.524196079484962</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.48107541979091</v>
+        <v>17.72644357113264</v>
       </c>
       <c r="C11">
-        <v>6.947093521408311</v>
+        <v>9.753708367027571</v>
       </c>
       <c r="D11">
-        <v>5.175568946027497</v>
+        <v>7.09442401974833</v>
       </c>
       <c r="F11">
-        <v>19.05542900577339</v>
+        <v>12.51343357238365</v>
       </c>
       <c r="G11">
-        <v>19.60554532532619</v>
+        <v>11.96766785453323</v>
       </c>
       <c r="H11">
-        <v>12.15549067171331</v>
+        <v>6.533614129059469</v>
       </c>
       <c r="I11">
-        <v>17.0251840898772</v>
+        <v>8.920071343466089</v>
       </c>
       <c r="K11">
-        <v>10.44641870060795</v>
+        <v>15.54056279676084</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.25458349192579</v>
+        <v>9.37635744553452</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.58806426946569</v>
+        <v>17.93166768675047</v>
       </c>
       <c r="C12">
-        <v>6.990439219169758</v>
+        <v>9.847180504810343</v>
       </c>
       <c r="D12">
-        <v>5.209929055513552</v>
+        <v>7.168409562627081</v>
       </c>
       <c r="F12">
-        <v>19.03477068558838</v>
+        <v>12.53588091388359</v>
       </c>
       <c r="G12">
-        <v>19.56442174964505</v>
+        <v>11.94340220956918</v>
       </c>
       <c r="H12">
-        <v>12.14188643214181</v>
+        <v>6.498581955684298</v>
       </c>
       <c r="I12">
-        <v>16.99712385090075</v>
+        <v>8.835188246985515</v>
       </c>
       <c r="K12">
-        <v>10.52712320400891</v>
+        <v>15.70358103675028</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.22875266681296</v>
+        <v>9.322420850999373</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.56511798514412</v>
+        <v>17.88766525361331</v>
       </c>
       <c r="C13">
-        <v>6.981129725089567</v>
+        <v>9.827122491882051</v>
       </c>
       <c r="D13">
-        <v>5.202553141717395</v>
+        <v>7.152540856748243</v>
       </c>
       <c r="F13">
-        <v>19.03917988674763</v>
+        <v>12.53089325455345</v>
       </c>
       <c r="G13">
-        <v>19.57322272720277</v>
+        <v>11.94832080671061</v>
       </c>
       <c r="H13">
-        <v>12.14480361212378</v>
+        <v>6.506096078703223</v>
       </c>
       <c r="I13">
-        <v>17.0031436804518</v>
+        <v>8.853428019020303</v>
       </c>
       <c r="K13">
-        <v>10.50980277653305</v>
+        <v>15.6686139802145</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.23428927206997</v>
+        <v>9.333943165274674</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.48992051680834</v>
+        <v>17.74341592835062</v>
       </c>
       <c r="C14">
-        <v>6.950671172923789</v>
+        <v>9.761431175467767</v>
       </c>
       <c r="D14">
-        <v>5.178406630369749</v>
+        <v>7.100540313482001</v>
       </c>
       <c r="F14">
-        <v>19.0537114431356</v>
+        <v>12.51521148291074</v>
       </c>
       <c r="G14">
-        <v>19.60213696976492</v>
+        <v>11.96553380689838</v>
       </c>
       <c r="H14">
-        <v>12.15436570249964</v>
+        <v>6.530718233843426</v>
       </c>
       <c r="I14">
-        <v>17.02286498968176</v>
+        <v>8.913069359691722</v>
       </c>
       <c r="K14">
-        <v>10.45308561546245</v>
+        <v>15.55403828579341</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.25244642177617</v>
+        <v>9.371878004474917</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.44358038204577</v>
+        <v>17.65448428028635</v>
       </c>
       <c r="C15">
-        <v>6.931939431594762</v>
+        <v>9.720980448305585</v>
       </c>
       <c r="D15">
-        <v>5.16354577590799</v>
+        <v>7.068497132391312</v>
       </c>
       <c r="F15">
-        <v>19.06272930698464</v>
+        <v>12.50605225767103</v>
       </c>
       <c r="G15">
-        <v>19.62001076516056</v>
+        <v>11.97696763360551</v>
       </c>
       <c r="H15">
-        <v>12.16026006387713</v>
+        <v>6.545889286771682</v>
       </c>
       <c r="I15">
-        <v>17.03501354205869</v>
+        <v>8.949722166639283</v>
       </c>
       <c r="K15">
-        <v>10.41816759240099</v>
+        <v>15.48344245681844</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.26364586758686</v>
+        <v>9.395386016550725</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.17376955365134</v>
+        <v>17.13603923884838</v>
       </c>
       <c r="C16">
-        <v>6.823467573490409</v>
+        <v>9.485934601491387</v>
       </c>
       <c r="D16">
-        <v>5.077318344470032</v>
+        <v>6.881945835305441</v>
       </c>
       <c r="F16">
-        <v>19.11619487130429</v>
+        <v>12.46029906610951</v>
       </c>
       <c r="G16">
-        <v>19.72492901622777</v>
+        <v>12.05569965325756</v>
       </c>
       <c r="H16">
-        <v>12.19461053598373</v>
+        <v>6.634172660270816</v>
       </c>
       <c r="I16">
-        <v>17.10568604838816</v>
+        <v>9.161606710146369</v>
       </c>
       <c r="K16">
-        <v>10.21538380524018</v>
+        <v>15.07254687227236</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.32901573161573</v>
+        <v>9.534134562209328</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.00448814542142</v>
+        <v>16.81012282283459</v>
       </c>
       <c r="C17">
-        <v>6.755941632624676</v>
+        <v>9.338879608328162</v>
       </c>
       <c r="D17">
-        <v>5.023484711311172</v>
+        <v>6.764902702895085</v>
       </c>
       <c r="F17">
-        <v>19.15058584829779</v>
+        <v>12.43812063785142</v>
       </c>
       <c r="G17">
-        <v>19.79150756410686</v>
+        <v>12.11530706774449</v>
       </c>
       <c r="H17">
-        <v>12.21619461972565</v>
+        <v>6.689506304667621</v>
       </c>
       <c r="I17">
-        <v>17.14998340103729</v>
+        <v>9.293226970961154</v>
       </c>
       <c r="K17">
-        <v>10.08862529649446</v>
+        <v>14.81484347076882</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.37018016520381</v>
+        <v>9.622713340841276</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.905754630423539</v>
+        <v>16.61977297812441</v>
       </c>
       <c r="C18">
-        <v>6.716751645247658</v>
+        <v>9.253257850987184</v>
       </c>
       <c r="D18">
-        <v>4.992183370299171</v>
+        <v>6.69663152976106</v>
       </c>
       <c r="F18">
-        <v>19.17095004055009</v>
+        <v>12.42747941249558</v>
       </c>
       <c r="G18">
-        <v>19.83061252722142</v>
+        <v>12.15355667503453</v>
       </c>
       <c r="H18">
-        <v>12.22879728552724</v>
+        <v>6.721755150667128</v>
       </c>
       <c r="I18">
-        <v>17.17580886771231</v>
+        <v>9.369530266483547</v>
       </c>
       <c r="K18">
-        <v>10.0148661251618</v>
+        <v>14.66456039877188</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.39424718022493</v>
+        <v>9.674881066800159</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.872091836258729</v>
+        <v>16.5548272649796</v>
       </c>
       <c r="C19">
-        <v>6.7034233123594</v>
+        <v>9.224090483485044</v>
       </c>
       <c r="D19">
-        <v>4.981527900339097</v>
+        <v>6.67335320613724</v>
       </c>
       <c r="F19">
-        <v>19.17794506533815</v>
+        <v>12.42423494467746</v>
       </c>
       <c r="G19">
-        <v>19.8439917497744</v>
+        <v>12.16717024952837</v>
       </c>
       <c r="H19">
-        <v>12.23309665363767</v>
+        <v>6.732745771037528</v>
       </c>
       <c r="I19">
-        <v>17.18461254739705</v>
+        <v>9.395467926851794</v>
       </c>
       <c r="K19">
-        <v>9.989747887758387</v>
+        <v>14.61332467552264</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.40246289577338</v>
+        <v>9.692748875851514</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.02265030725486</v>
+        <v>16.8451164345231</v>
       </c>
       <c r="C20">
-        <v>6.763166427709444</v>
+        <v>9.354641749203752</v>
       </c>
       <c r="D20">
-        <v>5.029250485637374</v>
+        <v>6.777460683132354</v>
       </c>
       <c r="F20">
-        <v>19.14686445537282</v>
+        <v>12.44026151513632</v>
       </c>
       <c r="G20">
-        <v>19.78433618551354</v>
+        <v>12.10854709426508</v>
       </c>
       <c r="H20">
-        <v>12.21387749731238</v>
+        <v>6.683572026528845</v>
       </c>
       <c r="I20">
-        <v>17.14523199314816</v>
+        <v>9.27915375196665</v>
       </c>
       <c r="K20">
-        <v>10.10220739030973</v>
+        <v>14.84248979288173</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.36575774403538</v>
+        <v>9.613156617421465</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.51206615521509</v>
+        <v>17.7859052216033</v>
       </c>
       <c r="C21">
-        <v>6.959633268576608</v>
+        <v>9.780770730370037</v>
       </c>
       <c r="D21">
-        <v>5.1855137527771</v>
+        <v>7.115854027884041</v>
       </c>
       <c r="F21">
-        <v>19.04941880989638</v>
+        <v>12.51972434009271</v>
       </c>
       <c r="G21">
-        <v>19.5936101716888</v>
+        <v>11.96029133883747</v>
       </c>
       <c r="H21">
-        <v>12.15154931161361</v>
+        <v>6.523467446244871</v>
       </c>
       <c r="I21">
-        <v>17.0170580533134</v>
+        <v>8.895526061405317</v>
       </c>
       <c r="K21">
-        <v>10.46978180775909</v>
+        <v>15.5877784552887</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.24709704079514</v>
+        <v>9.360678647965216</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.81945546440679</v>
+        <v>18.37503766365762</v>
       </c>
       <c r="C22">
-        <v>7.084705310971352</v>
+        <v>10.04977281097758</v>
       </c>
       <c r="D22">
-        <v>5.284505501196467</v>
+        <v>7.328460369768861</v>
       </c>
       <c r="F22">
-        <v>18.99095909823779</v>
+        <v>12.59150394231923</v>
       </c>
       <c r="G22">
-        <v>19.47624616622089</v>
+        <v>11.90273348203861</v>
       </c>
       <c r="H22">
-        <v>12.11248449160791</v>
+        <v>6.422799692167539</v>
       </c>
       <c r="I22">
-        <v>16.9363645760312</v>
+        <v>8.650200969596277</v>
       </c>
       <c r="K22">
-        <v>10.70212499241898</v>
+        <v>16.05632458492737</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.1730215751014</v>
+        <v>9.20769150209186</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.65654995774345</v>
+        <v>18.06295845422585</v>
       </c>
       <c r="C23">
-        <v>7.018266169020938</v>
+        <v>9.90708058340754</v>
       </c>
       <c r="D23">
-        <v>5.231964450265273</v>
+        <v>7.215774303769167</v>
       </c>
       <c r="F23">
-        <v>19.021680404833</v>
+        <v>12.55133198103321</v>
       </c>
       <c r="G23">
-        <v>19.53821553381036</v>
+        <v>11.92966158860482</v>
       </c>
       <c r="H23">
-        <v>12.13318150733976</v>
+        <v>6.476153680047568</v>
       </c>
       <c r="I23">
-        <v>16.97915139069462</v>
+        <v>8.780637256263429</v>
       </c>
       <c r="K23">
-        <v>10.57885465870405</v>
+        <v>15.80795762569574</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.21223894364193</v>
+        <v>9.288183235539416</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.01444358651902</v>
+        <v>16.82930509278842</v>
       </c>
       <c r="C24">
-        <v>6.759901243061968</v>
+        <v>9.347519039818835</v>
       </c>
       <c r="D24">
-        <v>5.02664487295829</v>
+        <v>6.771786276436485</v>
       </c>
       <c r="F24">
-        <v>19.14854505232894</v>
+        <v>12.43928706566266</v>
       </c>
       <c r="G24">
-        <v>19.78757578716164</v>
+        <v>12.11159092488392</v>
       </c>
       <c r="H24">
-        <v>12.21492446498256</v>
+        <v>6.686253555337629</v>
       </c>
       <c r="I24">
-        <v>17.14737898835401</v>
+        <v>9.285514283013518</v>
       </c>
       <c r="K24">
-        <v>10.09606967563678</v>
+        <v>14.82999750995307</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.36775587146542</v>
+        <v>9.61747335397758</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.269817749759989</v>
+        <v>15.38812587751814</v>
       </c>
       <c r="C25">
-        <v>6.46794861913327</v>
+        <v>8.704415040745021</v>
       </c>
       <c r="D25">
-        <v>4.792361498962611</v>
+        <v>6.256604433129229</v>
       </c>
       <c r="F25">
-        <v>19.30767470264172</v>
+        <v>12.39856621725171</v>
       </c>
       <c r="G25">
-        <v>20.08751116158841</v>
+        <v>12.45704617810966</v>
       </c>
       <c r="H25">
-        <v>12.31029088358539</v>
+        <v>6.928947109068545</v>
       </c>
       <c r="I25">
-        <v>17.34210679401476</v>
+        <v>9.853011013351674</v>
       </c>
       <c r="K25">
-        <v>9.543014845901734</v>
+        <v>13.69662144572832</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.55042957338966</v>
+        <v>10.01878878971722</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,845 +415,923 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.23215774094282</v>
+        <v>12.24199117331996</v>
       </c>
       <c r="C2">
-        <v>8.19862820276416</v>
+        <v>8.339039558337193</v>
       </c>
       <c r="D2">
-        <v>5.846755675585031</v>
+        <v>5.613722672433124</v>
       </c>
       <c r="F2">
-        <v>12.43124202925517</v>
+        <v>13.90904735778194</v>
       </c>
       <c r="G2">
-        <v>12.81835380990043</v>
-      </c>
-      <c r="H2">
-        <v>7.120606733959146</v>
+        <v>15.33809819077533</v>
       </c>
       <c r="I2">
-        <v>10.29056688691373</v>
+        <v>2.907634715376951</v>
+      </c>
+      <c r="J2">
+        <v>7.576545233560328</v>
       </c>
       <c r="K2">
-        <v>12.79629424860704</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>10.34881383232599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.51545299928652</v>
+      </c>
+      <c r="M2">
+        <v>11.36653966604492</v>
+      </c>
+      <c r="P2">
+        <v>11.8976826768366</v>
+      </c>
+      <c r="Q2">
+        <v>11.42161585084127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.39001917658484</v>
+        <v>11.48852750418432</v>
       </c>
       <c r="C3">
-        <v>7.836916258758714</v>
+        <v>8.018616781023322</v>
       </c>
       <c r="D3">
-        <v>5.550485338128112</v>
+        <v>5.336476239680032</v>
       </c>
       <c r="F3">
-        <v>12.4890213779262</v>
+        <v>13.79328783361361</v>
       </c>
       <c r="G3">
-        <v>13.11979933774839</v>
-      </c>
-      <c r="H3">
-        <v>7.258248999691132</v>
+        <v>15.32545676490739</v>
       </c>
       <c r="I3">
-        <v>10.59949718031463</v>
+        <v>2.799423979352795</v>
+      </c>
+      <c r="J3">
+        <v>7.652496102674228</v>
       </c>
       <c r="K3">
-        <v>12.14638142686009</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>10.5918964632998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.684317086602</v>
+      </c>
+      <c r="M3">
+        <v>10.78983781932576</v>
+      </c>
+      <c r="P3">
+        <v>11.97649085092799</v>
+      </c>
+      <c r="Q3">
+        <v>11.5216467761482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.84425407685385</v>
+        <v>10.99682492532552</v>
       </c>
       <c r="C4">
-        <v>7.60600070031067</v>
+        <v>7.816944239856135</v>
       </c>
       <c r="D4">
-        <v>5.359691917414104</v>
+        <v>5.158450194566322</v>
       </c>
       <c r="F4">
-        <v>12.5408708731669</v>
+        <v>13.73102086102397</v>
       </c>
       <c r="G4">
-        <v>13.3297061082239</v>
-      </c>
-      <c r="H4">
-        <v>7.346495924092766</v>
+        <v>15.33130022815245</v>
       </c>
       <c r="I4">
-        <v>10.79534511000849</v>
+        <v>2.730967647900499</v>
+      </c>
+      <c r="J4">
+        <v>7.70179433927713</v>
       </c>
       <c r="K4">
-        <v>11.72833880727077</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>10.75013463195674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.79176112995895</v>
+      </c>
+      <c r="M4">
+        <v>10.41838227186684</v>
+      </c>
+      <c r="P4">
+        <v>12.0275768688732</v>
+      </c>
+      <c r="Q4">
+        <v>11.58916505829971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.61469823071892</v>
+        <v>10.78447039109958</v>
       </c>
       <c r="C5">
-        <v>7.509774891432343</v>
+        <v>7.740143146959351</v>
       </c>
       <c r="D5">
-        <v>5.279755828603337</v>
+        <v>5.0852913221823</v>
       </c>
       <c r="F5">
-        <v>12.56593462331628</v>
+        <v>13.7031115094164</v>
       </c>
       <c r="G5">
-        <v>13.42105798222086</v>
-      </c>
-      <c r="H5">
-        <v>7.383384404503403</v>
+        <v>15.32902171008202</v>
       </c>
       <c r="I5">
-        <v>10.87671255374802</v>
+        <v>2.703136599260694</v>
+      </c>
+      <c r="J5">
+        <v>7.721457711644243</v>
       </c>
       <c r="K5">
-        <v>11.55332330184846</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>10.81679813652495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.83386358863445</v>
+      </c>
+      <c r="M5">
+        <v>10.26287506165581</v>
+      </c>
+      <c r="P5">
+        <v>12.04964408869618</v>
+      </c>
+      <c r="Q5">
+        <v>11.61525776765579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.57615088691023</v>
+        <v>10.74303025414557</v>
       </c>
       <c r="C6">
-        <v>7.493671268195236</v>
+        <v>7.735370627355927</v>
       </c>
       <c r="D6">
-        <v>5.26635203401316</v>
+        <v>5.074626788372415</v>
       </c>
       <c r="F6">
-        <v>12.57032872199975</v>
+        <v>13.69283006456283</v>
       </c>
       <c r="G6">
-        <v>13.43656612137498</v>
-      </c>
-      <c r="H6">
-        <v>7.389565392431788</v>
+        <v>15.31911656651325</v>
       </c>
       <c r="I6">
-        <v>10.8903178987715</v>
+        <v>2.699395067504951</v>
+      </c>
+      <c r="J6">
+        <v>7.723435938278966</v>
       </c>
       <c r="K6">
-        <v>11.52398454104834</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>10.82799709326189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.83771324693698</v>
+      </c>
+      <c r="M6">
+        <v>10.23696100873509</v>
+      </c>
+      <c r="P6">
+        <v>12.05406414320898</v>
+      </c>
+      <c r="Q6">
+        <v>11.61612658032461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.84118706908937</v>
+        <v>10.97866042458909</v>
       </c>
       <c r="C7">
-        <v>7.604711439739906</v>
+        <v>7.837647572131769</v>
       </c>
       <c r="D7">
-        <v>5.358622653709454</v>
+        <v>5.161766876652727</v>
       </c>
       <c r="F7">
-        <v>12.54119320252409</v>
+        <v>13.71490189517804</v>
       </c>
       <c r="G7">
-        <v>13.33091511528316</v>
-      </c>
-      <c r="H7">
-        <v>7.346989675419866</v>
+        <v>15.3047156645586</v>
       </c>
       <c r="I7">
-        <v>10.79643614082261</v>
+        <v>2.732750853267858</v>
+      </c>
+      <c r="J7">
+        <v>7.698436946753811</v>
       </c>
       <c r="K7">
-        <v>11.72599718308831</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>10.75102494988029</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.78358595548304</v>
+      </c>
+      <c r="M7">
+        <v>10.41674284855246</v>
+      </c>
+      <c r="P7">
+        <v>12.02988445842301</v>
+      </c>
+      <c r="Q7">
+        <v>11.57980361931593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.947773909267</v>
+        <v>11.96941840678539</v>
       </c>
       <c r="C8">
-        <v>8.0757924244084</v>
+        <v>8.257282327857482</v>
       </c>
       <c r="D8">
-        <v>5.746470632635472</v>
+        <v>5.525151624143743</v>
       </c>
       <c r="F8">
-        <v>12.44765718741811</v>
+        <v>13.8467370270921</v>
       </c>
       <c r="G8">
-        <v>12.91687394543143</v>
-      </c>
-      <c r="H8">
-        <v>7.167283160416235</v>
+        <v>15.29586448280826</v>
       </c>
       <c r="I8">
-        <v>10.39581127600303</v>
+        <v>2.873173822394145</v>
+      </c>
+      <c r="J8">
+        <v>7.597391389409372</v>
       </c>
       <c r="K8">
-        <v>12.57620912958672</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>10.43071362183096</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.56131934799762</v>
+      </c>
+      <c r="M8">
+        <v>11.17191517000092</v>
+      </c>
+      <c r="P8">
+        <v>11.92720787552469</v>
+      </c>
+      <c r="Q8">
+        <v>11.44194245389167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.88835131062496</v>
+        <v>13.70573855766387</v>
       </c>
       <c r="C9">
-        <v>8.926192480941522</v>
+        <v>9.002104911412582</v>
       </c>
       <c r="D9">
-        <v>6.434940882033057</v>
+        <v>6.167295785070967</v>
       </c>
       <c r="F9">
-        <v>12.40210920961454</v>
+        <v>14.2037707038332</v>
       </c>
       <c r="G9">
-        <v>12.3226597744988</v>
-      </c>
-      <c r="H9">
-        <v>6.84513057620621</v>
+        <v>15.43934416668872</v>
       </c>
       <c r="I9">
-        <v>9.658794410694147</v>
+        <v>3.13007461420283</v>
+      </c>
+      <c r="J9">
+        <v>7.427388953464555</v>
       </c>
       <c r="K9">
-        <v>14.08876419654089</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>9.877926746440496</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>11.17132105311976</v>
+      </c>
+      <c r="M9">
+        <v>12.51098959377295</v>
+      </c>
+      <c r="P9">
+        <v>11.74369943241289</v>
+      </c>
+      <c r="Q9">
+        <v>11.23977603752776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.17283677055378</v>
+        <v>14.83430779101393</v>
       </c>
       <c r="C10">
-        <v>9.502572818503886</v>
+        <v>9.531481921455244</v>
       </c>
       <c r="D10">
-        <v>6.895172063879766</v>
+        <v>6.600757932064004</v>
       </c>
       <c r="F10">
-        <v>12.46312001632005</v>
+        <v>14.50257791170531</v>
       </c>
       <c r="G10">
-        <v>12.04944912077169</v>
-      </c>
-      <c r="H10">
-        <v>6.627916598485078</v>
+        <v>15.60813826250869</v>
       </c>
       <c r="I10">
-        <v>9.146669215928663</v>
+        <v>3.311104137767261</v>
+      </c>
+      <c r="J10">
+        <v>7.314742915480066</v>
       </c>
       <c r="K10">
-        <v>15.10167280495078</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>9.524196079484962</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.89947811514924</v>
+      </c>
+      <c r="M10">
+        <v>13.405636679069</v>
+      </c>
+      <c r="P10">
+        <v>11.62427859596876</v>
+      </c>
+      <c r="Q10">
+        <v>11.12078415304888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.72644357113264</v>
+        <v>15.29899677525976</v>
       </c>
       <c r="C11">
-        <v>9.753708367027571</v>
+        <v>9.79557014665501</v>
       </c>
       <c r="D11">
-        <v>7.09442401974833</v>
+        <v>6.794507872976825</v>
       </c>
       <c r="F11">
-        <v>12.51343357238365</v>
+        <v>14.62444625556263</v>
       </c>
       <c r="G11">
-        <v>11.96766785453323</v>
-      </c>
-      <c r="H11">
-        <v>6.533614129059469</v>
+        <v>15.66142739059063</v>
       </c>
       <c r="I11">
-        <v>8.920071343466089</v>
+        <v>3.395875118515247</v>
+      </c>
+      <c r="J11">
+        <v>7.260812228814411</v>
       </c>
       <c r="K11">
-        <v>15.54056279676084</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>9.37635744553452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.76557820011272</v>
+      </c>
+      <c r="M11">
+        <v>13.79337483380816</v>
+      </c>
+      <c r="P11">
+        <v>11.57776195462728</v>
+      </c>
+      <c r="Q11">
+        <v>11.05892889571115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.93166768675047</v>
+        <v>15.4807262271997</v>
       </c>
       <c r="C12">
-        <v>9.847180504810343</v>
+        <v>9.878472763843533</v>
       </c>
       <c r="D12">
-        <v>7.168409562627081</v>
+        <v>6.863559009041445</v>
       </c>
       <c r="F12">
-        <v>12.53588091388359</v>
+        <v>14.68472841898923</v>
       </c>
       <c r="G12">
-        <v>11.94340220956918</v>
-      </c>
-      <c r="H12">
-        <v>6.498581955684298</v>
+        <v>15.70648800327215</v>
       </c>
       <c r="I12">
-        <v>8.835188246985515</v>
+        <v>3.425556862280592</v>
+      </c>
+      <c r="J12">
+        <v>7.24402681844101</v>
       </c>
       <c r="K12">
-        <v>15.70358103675028</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>9.322420850999373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.72320034273868</v>
+      </c>
+      <c r="M12">
+        <v>13.936986663174</v>
+      </c>
+      <c r="P12">
+        <v>11.55829111170292</v>
+      </c>
+      <c r="Q12">
+        <v>11.04524931519601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.88766525361331</v>
+        <v>15.44375875513673</v>
       </c>
       <c r="C13">
-        <v>9.827122491882051</v>
+        <v>9.85746899491401</v>
       </c>
       <c r="D13">
-        <v>7.152540856748243</v>
+        <v>6.848152584738189</v>
       </c>
       <c r="F13">
-        <v>12.53089325455345</v>
+        <v>14.67422138232127</v>
       </c>
       <c r="G13">
-        <v>11.94832080671061</v>
-      </c>
-      <c r="H13">
-        <v>6.506096078703223</v>
+        <v>15.70109406463618</v>
       </c>
       <c r="I13">
-        <v>8.853428019020303</v>
+        <v>3.418676120368235</v>
+      </c>
+      <c r="J13">
+        <v>7.248254671936197</v>
       </c>
       <c r="K13">
-        <v>15.6686139802145</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>9.333943165274674</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.73385008034798</v>
+      </c>
+      <c r="M13">
+        <v>13.9061201072963</v>
+      </c>
+      <c r="P13">
+        <v>11.56197902980109</v>
+      </c>
+      <c r="Q13">
+        <v>11.04984629285647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.74341592835062</v>
+        <v>15.31488162268871</v>
       </c>
       <c r="C14">
-        <v>9.761431175467767</v>
+        <v>9.801046295082823</v>
       </c>
       <c r="D14">
-        <v>7.100540313482001</v>
+        <v>6.799961295558385</v>
       </c>
       <c r="F14">
-        <v>12.51521148291074</v>
+        <v>14.63045932968287</v>
       </c>
       <c r="G14">
-        <v>11.96553380689838</v>
-      </c>
-      <c r="H14">
-        <v>6.530718233843426</v>
+        <v>15.66696726718209</v>
       </c>
       <c r="I14">
-        <v>8.913069359691722</v>
+        <v>3.398103453553056</v>
+      </c>
+      <c r="J14">
+        <v>7.259690944899461</v>
       </c>
       <c r="K14">
-        <v>15.55403828579341</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>9.371878004474917</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.76273690236773</v>
+      </c>
+      <c r="M14">
+        <v>13.80521966652043</v>
+      </c>
+      <c r="P14">
+        <v>11.57594596885048</v>
+      </c>
+      <c r="Q14">
+        <v>11.05850330656513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.65448428028635</v>
+        <v>15.23141974555748</v>
       </c>
       <c r="C15">
-        <v>9.720980448305585</v>
+        <v>9.772717812368834</v>
       </c>
       <c r="D15">
-        <v>7.068497132391312</v>
+        <v>6.771456123795335</v>
       </c>
       <c r="F15">
-        <v>12.50605225767103</v>
+        <v>14.59880579222088</v>
       </c>
       <c r="G15">
-        <v>11.97696763360551</v>
-      </c>
-      <c r="H15">
-        <v>6.545889286771682</v>
+        <v>15.63764887754839</v>
       </c>
       <c r="I15">
-        <v>8.949722166639283</v>
+        <v>3.38654380389007</v>
+      </c>
+      <c r="J15">
+        <v>7.265511343090412</v>
       </c>
       <c r="K15">
-        <v>15.48344245681844</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>9.395386016550725</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.77747071896191</v>
+      </c>
+      <c r="M15">
+        <v>13.74317023578226</v>
+      </c>
+      <c r="P15">
+        <v>11.58550689380397</v>
+      </c>
+      <c r="Q15">
+        <v>11.06060996986419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.13603923884838</v>
+        <v>14.76926713659898</v>
       </c>
       <c r="C16">
-        <v>9.485934601491387</v>
+        <v>9.568370900977561</v>
       </c>
       <c r="D16">
-        <v>6.881945835305441</v>
+        <v>6.598064805798623</v>
       </c>
       <c r="F16">
-        <v>12.46029906610951</v>
+        <v>14.45208174297636</v>
       </c>
       <c r="G16">
-        <v>12.05569965325756</v>
-      </c>
-      <c r="H16">
-        <v>6.634172660270816</v>
+        <v>15.53069753902011</v>
       </c>
       <c r="I16">
-        <v>9.161606710146369</v>
+        <v>3.313377219736654</v>
+      </c>
+      <c r="J16">
+        <v>7.307818174878554</v>
       </c>
       <c r="K16">
-        <v>15.07254687227236</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>9.534134562209328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.88268521320603</v>
+      </c>
+      <c r="M16">
+        <v>13.38101542961595</v>
+      </c>
+      <c r="P16">
+        <v>11.63516309697034</v>
+      </c>
+      <c r="Q16">
+        <v>11.09666356165618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.81012282283459</v>
+        <v>14.47793001344986</v>
       </c>
       <c r="C17">
-        <v>9.338879608328162</v>
+        <v>9.441326111623585</v>
       </c>
       <c r="D17">
-        <v>6.764902702895085</v>
+        <v>6.489398112513829</v>
       </c>
       <c r="F17">
-        <v>12.43812063785142</v>
+        <v>14.36463880932157</v>
       </c>
       <c r="G17">
-        <v>12.11530706774449</v>
-      </c>
-      <c r="H17">
-        <v>6.689506304667621</v>
+        <v>15.46998120936092</v>
       </c>
       <c r="I17">
-        <v>9.293226970961154</v>
+        <v>3.268201691686811</v>
+      </c>
+      <c r="J17">
+        <v>7.334665607386448</v>
       </c>
       <c r="K17">
-        <v>14.81484347076882</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>9.622713340841276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.94847752403057</v>
+      </c>
+      <c r="M17">
+        <v>13.15373743885933</v>
+      </c>
+      <c r="P17">
+        <v>11.66640514246298</v>
+      </c>
+      <c r="Q17">
+        <v>11.12107220255961</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.61977297812441</v>
+        <v>14.31810276915468</v>
       </c>
       <c r="C18">
-        <v>9.253257850987184</v>
+        <v>9.350831973523817</v>
       </c>
       <c r="D18">
-        <v>6.69663152976106</v>
+        <v>6.42290562155715</v>
       </c>
       <c r="F18">
-        <v>12.42747941249558</v>
+        <v>14.32836615618443</v>
       </c>
       <c r="G18">
-        <v>12.15355667503453</v>
-      </c>
-      <c r="H18">
-        <v>6.721755150667128</v>
+        <v>15.45948928559547</v>
       </c>
       <c r="I18">
-        <v>9.369530266483547</v>
+        <v>3.238874781321018</v>
+      </c>
+      <c r="J18">
+        <v>7.353605783901261</v>
       </c>
       <c r="K18">
-        <v>14.66456039877188</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>9.674881066800159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.99446085542128</v>
+      </c>
+      <c r="M18">
+        <v>13.02079767391025</v>
+      </c>
+      <c r="P18">
+        <v>11.68234823985744</v>
+      </c>
+      <c r="Q18">
+        <v>11.14449535616885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.5548272649796</v>
+        <v>14.25531891978087</v>
       </c>
       <c r="C19">
-        <v>9.224090483485044</v>
+        <v>9.33302969845426</v>
       </c>
       <c r="D19">
-        <v>6.67335320613724</v>
+        <v>6.402674235255105</v>
       </c>
       <c r="F19">
-        <v>12.42423494467746</v>
+        <v>14.30617054801605</v>
       </c>
       <c r="G19">
-        <v>12.16717024952837</v>
-      </c>
-      <c r="H19">
-        <v>6.732745771037528</v>
+        <v>15.43876967727196</v>
       </c>
       <c r="I19">
-        <v>9.395467926851794</v>
+        <v>3.231342429801397</v>
+      </c>
+      <c r="J19">
+        <v>7.357622615653805</v>
       </c>
       <c r="K19">
-        <v>14.61332467552264</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>9.692748875851514</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>11.00416894070213</v>
+      </c>
+      <c r="M19">
+        <v>12.97573444366606</v>
+      </c>
+      <c r="P19">
+        <v>11.68957704867044</v>
+      </c>
+      <c r="Q19">
+        <v>11.14595691572588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.8451164345231</v>
+        <v>14.51006496486728</v>
       </c>
       <c r="C20">
-        <v>9.354641749203752</v>
+        <v>9.453604259494611</v>
       </c>
       <c r="D20">
-        <v>6.777460683132354</v>
+        <v>6.500807986572421</v>
       </c>
       <c r="F20">
-        <v>12.44026151513632</v>
+        <v>14.37487120706933</v>
       </c>
       <c r="G20">
-        <v>12.10854709426508</v>
-      </c>
-      <c r="H20">
-        <v>6.683572026528845</v>
+        <v>15.47803377292064</v>
       </c>
       <c r="I20">
-        <v>9.27915375196665</v>
+        <v>3.27276263855532</v>
+      </c>
+      <c r="J20">
+        <v>7.332023589083699</v>
       </c>
       <c r="K20">
-        <v>14.84248979288173</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>9.613156617421465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.94203121386921</v>
+      </c>
+      <c r="M20">
+        <v>13.17809801287046</v>
+      </c>
+      <c r="P20">
+        <v>11.66286698886645</v>
+      </c>
+      <c r="Q20">
+        <v>11.11906088713897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.7859052216033</v>
+        <v>15.34172370092127</v>
       </c>
       <c r="C21">
-        <v>9.780770730370037</v>
+        <v>9.835604767919252</v>
       </c>
       <c r="D21">
-        <v>7.115854027884041</v>
+        <v>6.817487648953315</v>
       </c>
       <c r="F21">
-        <v>12.51972434009271</v>
+        <v>14.62902529407852</v>
       </c>
       <c r="G21">
-        <v>11.96029133883747</v>
-      </c>
-      <c r="H21">
-        <v>6.523467446244871</v>
+        <v>15.65204124647152</v>
       </c>
       <c r="I21">
-        <v>8.895526061405317</v>
+        <v>3.407221105918175</v>
+      </c>
+      <c r="J21">
+        <v>7.252760191894382</v>
       </c>
       <c r="K21">
-        <v>15.5877784552887</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>9.360678647965216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>10.74555140693131</v>
+      </c>
+      <c r="M21">
+        <v>13.83530530487853</v>
+      </c>
+      <c r="P21">
+        <v>11.57453913304389</v>
+      </c>
+      <c r="Q21">
+        <v>11.04635004085786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.37503766365762</v>
+        <v>15.87385251207935</v>
       </c>
       <c r="C22">
-        <v>10.04977281097758</v>
+        <v>10.05687266947979</v>
       </c>
       <c r="D22">
-        <v>7.328460369768861</v>
+        <v>7.012660344043585</v>
       </c>
       <c r="F22">
-        <v>12.59150394231923</v>
+        <v>14.82156083109497</v>
       </c>
       <c r="G22">
-        <v>11.90273348203861</v>
-      </c>
-      <c r="H22">
-        <v>6.422799692167539</v>
+        <v>15.81364931369567</v>
       </c>
       <c r="I22">
-        <v>8.650200969596277</v>
+        <v>3.490135797893868</v>
+      </c>
+      <c r="J22">
+        <v>7.2084847430908</v>
       </c>
       <c r="K22">
-        <v>16.05632458492737</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>9.20769150209186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>10.63234825564855</v>
+      </c>
+      <c r="M22">
+        <v>14.24754656634204</v>
+      </c>
+      <c r="P22">
+        <v>11.51597825520618</v>
+      </c>
+      <c r="Q22">
+        <v>11.01877283604658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.06295845422585</v>
+        <v>15.60546709805121</v>
       </c>
       <c r="C23">
-        <v>9.90708058340754</v>
+        <v>9.917809341803411</v>
       </c>
       <c r="D23">
-        <v>7.215774303769167</v>
+        <v>6.905199727771931</v>
       </c>
       <c r="F23">
-        <v>12.55133198103321</v>
+        <v>14.73515105596087</v>
       </c>
       <c r="G23">
-        <v>11.92966158860482</v>
-      </c>
-      <c r="H23">
-        <v>6.476153680047568</v>
+        <v>15.75577865510849</v>
       </c>
       <c r="I23">
-        <v>8.780637256263429</v>
+        <v>3.442647122867743</v>
+      </c>
+      <c r="J23">
+        <v>7.236125327918177</v>
       </c>
       <c r="K23">
-        <v>15.80795762569574</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>9.288183235539416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>10.70287532995411</v>
+      </c>
+      <c r="M23">
+        <v>14.02862861453029</v>
+      </c>
+      <c r="P23">
+        <v>11.54370571300358</v>
+      </c>
+      <c r="Q23">
+        <v>11.04430076335468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.82930509278842</v>
+        <v>14.51777404955445</v>
       </c>
       <c r="C24">
-        <v>9.347519039818835</v>
+        <v>9.412795913041466</v>
       </c>
       <c r="D24">
-        <v>6.771786276436485</v>
+        <v>6.489047359898422</v>
       </c>
       <c r="F24">
-        <v>12.43928706566266</v>
+        <v>14.39780606742696</v>
       </c>
       <c r="G24">
-        <v>12.11159092488392</v>
-      </c>
-      <c r="H24">
-        <v>6.686253555337629</v>
+        <v>15.52222927487384</v>
       </c>
       <c r="I24">
-        <v>9.285514283013518</v>
+        <v>3.264772867781295</v>
+      </c>
+      <c r="J24">
+        <v>7.339947067656752</v>
       </c>
       <c r="K24">
-        <v>14.82999750995307</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>9.61747335397758</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.9612884076141</v>
+      </c>
+      <c r="M24">
+        <v>13.16636180522305</v>
+      </c>
+      <c r="P24">
+        <v>11.6595452207576</v>
+      </c>
+      <c r="Q24">
+        <v>11.13811022402258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.38812587751814</v>
+        <v>13.23746688914531</v>
       </c>
       <c r="C25">
-        <v>8.704415040745021</v>
+        <v>8.841142425169457</v>
       </c>
       <c r="D25">
-        <v>6.256604433129229</v>
+        <v>6.007365400003954</v>
       </c>
       <c r="F25">
-        <v>12.39856621725171</v>
+        <v>14.07205101454184</v>
       </c>
       <c r="G25">
-        <v>12.45704617810966</v>
-      </c>
-      <c r="H25">
-        <v>6.928947109068545</v>
+        <v>15.34038318665388</v>
       </c>
       <c r="I25">
-        <v>9.853011013351674</v>
+        <v>3.066451905864645</v>
+      </c>
+      <c r="J25">
+        <v>7.464445681820775</v>
       </c>
       <c r="K25">
-        <v>13.69662144572832</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>10.01878878971722</v>
+        <v>11.25769854470121</v>
+      </c>
+      <c r="M25">
+        <v>12.16497607860402</v>
+      </c>
+      <c r="P25">
+        <v>11.79535353283299</v>
+      </c>
+      <c r="Q25">
+        <v>11.27107533337579</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,917 +421,1067 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.24199117331996</v>
+        <v>12.17506776612184</v>
       </c>
       <c r="C2">
-        <v>8.339039558337193</v>
+        <v>8.304629591001001</v>
       </c>
       <c r="D2">
-        <v>5.613722672433124</v>
+        <v>5.641279154470438</v>
       </c>
       <c r="F2">
-        <v>13.90904735778194</v>
+        <v>13.80126230419753</v>
       </c>
       <c r="G2">
-        <v>15.33809819077533</v>
+        <v>14.32270994399792</v>
       </c>
       <c r="I2">
-        <v>2.907634715376951</v>
+        <v>2.934719450512565</v>
       </c>
       <c r="J2">
-        <v>7.576545233560328</v>
+        <v>8.102278052639628</v>
       </c>
       <c r="K2">
-        <v>11.51545299928652</v>
+        <v>11.37986658881622</v>
+      </c>
+      <c r="L2">
+        <v>10.3625116065528</v>
       </c>
       <c r="M2">
-        <v>11.36653966604492</v>
-      </c>
-      <c r="P2">
-        <v>11.8976826768366</v>
-      </c>
-      <c r="Q2">
-        <v>11.42161585084127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>6.44516534712498</v>
+      </c>
+      <c r="O2">
+        <v>11.35591213910445</v>
+      </c>
+      <c r="R2">
+        <v>11.8942970914582</v>
+      </c>
+      <c r="S2">
+        <v>11.35357823156296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.48852750418432</v>
+        <v>11.4594394859588</v>
       </c>
       <c r="C3">
-        <v>8.018616781023322</v>
+        <v>7.91669831544951</v>
       </c>
       <c r="D3">
-        <v>5.336476239680032</v>
+        <v>5.352479520560565</v>
       </c>
       <c r="F3">
-        <v>13.79328783361361</v>
+        <v>13.70621980222417</v>
       </c>
       <c r="G3">
-        <v>15.32545676490739</v>
+        <v>14.35259995935192</v>
       </c>
       <c r="I3">
-        <v>2.799423979352795</v>
+        <v>2.838084685576559</v>
       </c>
       <c r="J3">
-        <v>7.652496102674228</v>
+        <v>8.152366903295899</v>
       </c>
       <c r="K3">
-        <v>11.684317086602</v>
+        <v>11.5467130485762</v>
+      </c>
+      <c r="L3">
+        <v>10.537004889102</v>
       </c>
       <c r="M3">
-        <v>10.78983781932576</v>
-      </c>
-      <c r="P3">
-        <v>11.97649085092799</v>
-      </c>
-      <c r="Q3">
-        <v>11.5216467761482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>6.563505682847243</v>
+      </c>
+      <c r="O3">
+        <v>10.78114295861346</v>
+      </c>
+      <c r="R3">
+        <v>11.95856624190065</v>
+      </c>
+      <c r="S3">
+        <v>11.46046821418132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.99682492532552</v>
+        <v>10.99248846990061</v>
       </c>
       <c r="C4">
-        <v>7.816944239856135</v>
+        <v>7.672123584338123</v>
       </c>
       <c r="D4">
-        <v>5.158450194566322</v>
+        <v>5.16699965258404</v>
       </c>
       <c r="F4">
-        <v>13.73102086102397</v>
+        <v>13.65537116159722</v>
       </c>
       <c r="G4">
-        <v>15.33130022815245</v>
+        <v>14.38529659864934</v>
       </c>
       <c r="I4">
-        <v>2.730967647900499</v>
+        <v>2.777085539308321</v>
       </c>
       <c r="J4">
-        <v>7.70179433927713</v>
+        <v>8.184509404531402</v>
       </c>
       <c r="K4">
-        <v>11.79176112995895</v>
+        <v>11.65206823250738</v>
+      </c>
+      <c r="L4">
+        <v>10.65036603009834</v>
       </c>
       <c r="M4">
-        <v>10.41838227186684</v>
-      </c>
-      <c r="P4">
-        <v>12.0275768688732</v>
-      </c>
-      <c r="Q4">
-        <v>11.58916505829971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>6.654473354978925</v>
+      </c>
+      <c r="O4">
+        <v>10.41097552112883</v>
+      </c>
+      <c r="R4">
+        <v>12.00093923911518</v>
+      </c>
+      <c r="S4">
+        <v>11.53117298510872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.78447039109958</v>
+        <v>10.79060528386341</v>
       </c>
       <c r="C5">
-        <v>7.740143146959351</v>
+        <v>7.577861328497697</v>
       </c>
       <c r="D5">
-        <v>5.0852913221823</v>
+        <v>5.090726976010929</v>
       </c>
       <c r="F5">
-        <v>13.7031115094164</v>
+        <v>13.63174325390839</v>
       </c>
       <c r="G5">
-        <v>15.32902171008202</v>
+        <v>14.39376351358939</v>
       </c>
       <c r="I5">
-        <v>2.703136599260694</v>
+        <v>2.75263659635755</v>
       </c>
       <c r="J5">
-        <v>7.721457711644243</v>
+        <v>8.196848593657419</v>
       </c>
       <c r="K5">
-        <v>11.83386358863445</v>
+        <v>11.69311277314933</v>
+      </c>
+      <c r="L5">
+        <v>10.69514340312384</v>
       </c>
       <c r="M5">
-        <v>10.26287506165581</v>
-      </c>
-      <c r="P5">
-        <v>12.04964408869618</v>
-      </c>
-      <c r="Q5">
-        <v>11.61525776765579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>6.695285137066633</v>
+      </c>
+      <c r="O5">
+        <v>10.25602876675419</v>
+      </c>
+      <c r="R5">
+        <v>12.01952332563527</v>
+      </c>
+      <c r="S5">
+        <v>11.55829697980321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.74303025414557</v>
+        <v>10.75092404895279</v>
       </c>
       <c r="C6">
-        <v>7.735370627355927</v>
+        <v>7.570599190997425</v>
       </c>
       <c r="D6">
-        <v>5.074626788372415</v>
+        <v>5.07955262314234</v>
       </c>
       <c r="F6">
-        <v>13.69283006456283</v>
+        <v>13.6221071309598</v>
       </c>
       <c r="G6">
-        <v>15.31911656651325</v>
+        <v>14.38524113433375</v>
       </c>
       <c r="I6">
-        <v>2.699395067504951</v>
+        <v>2.74981169719753</v>
       </c>
       <c r="J6">
-        <v>7.723435938278966</v>
+        <v>8.197567283681305</v>
       </c>
       <c r="K6">
-        <v>11.83771324693698</v>
+        <v>11.69677609278724</v>
+      </c>
+      <c r="L6">
+        <v>10.69905402350893</v>
       </c>
       <c r="M6">
-        <v>10.23696100873509</v>
-      </c>
-      <c r="P6">
-        <v>12.05406414320898</v>
-      </c>
-      <c r="Q6">
-        <v>11.61612658032461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>6.701426094031151</v>
+      </c>
+      <c r="O6">
+        <v>10.23021743772515</v>
+      </c>
+      <c r="R6">
+        <v>12.02338746657026</v>
+      </c>
+      <c r="S6">
+        <v>11.55930028291017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.97866042458909</v>
+        <v>10.97188229759389</v>
       </c>
       <c r="C7">
-        <v>7.837647572131769</v>
+        <v>7.688621969189382</v>
       </c>
       <c r="D7">
-        <v>5.161766876652727</v>
+        <v>5.17319602733212</v>
       </c>
       <c r="F7">
-        <v>13.71490189517804</v>
+        <v>13.62923864371241</v>
       </c>
       <c r="G7">
-        <v>15.3047156645586</v>
+        <v>14.43163461614187</v>
       </c>
       <c r="I7">
-        <v>2.732750853267858</v>
+        <v>2.779379594107595</v>
       </c>
       <c r="J7">
-        <v>7.698436946753811</v>
+        <v>8.156764047131649</v>
       </c>
       <c r="K7">
-        <v>11.78358595548304</v>
+        <v>11.6410410588222</v>
+      </c>
+      <c r="L7">
+        <v>10.6382433069938</v>
       </c>
       <c r="M7">
-        <v>10.41674284855246</v>
-      </c>
-      <c r="P7">
-        <v>12.02988445842301</v>
-      </c>
-      <c r="Q7">
-        <v>11.57980361931593</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>6.65112469368134</v>
+      </c>
+      <c r="O7">
+        <v>10.40583692823793</v>
+      </c>
+      <c r="R7">
+        <v>12.00427678034728</v>
+      </c>
+      <c r="S7">
+        <v>11.51581236277234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.96941840678539</v>
+        <v>11.90728318520149</v>
       </c>
       <c r="C8">
-        <v>8.257282327857482</v>
+        <v>8.185131579572207</v>
       </c>
       <c r="D8">
-        <v>5.525151624143743</v>
+        <v>5.557918091065545</v>
       </c>
       <c r="F8">
-        <v>13.8467370270921</v>
+        <v>13.71355569525657</v>
       </c>
       <c r="G8">
-        <v>15.29586448280826</v>
+        <v>14.54090687700243</v>
       </c>
       <c r="I8">
-        <v>2.873173822394145</v>
+        <v>2.90396810356419</v>
       </c>
       <c r="J8">
-        <v>7.597391389409372</v>
+        <v>8.036104588577722</v>
       </c>
       <c r="K8">
-        <v>11.56131934799762</v>
+        <v>11.4160606335171</v>
+      </c>
+      <c r="L8">
+        <v>10.40131565677039</v>
       </c>
       <c r="M8">
-        <v>11.17191517000092</v>
-      </c>
-      <c r="P8">
-        <v>11.92720787552469</v>
-      </c>
-      <c r="Q8">
-        <v>11.44194245389167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>6.471041926818201</v>
+      </c>
+      <c r="O8">
+        <v>11.15093921088194</v>
+      </c>
+      <c r="R8">
+        <v>11.92258929711207</v>
+      </c>
+      <c r="S8">
+        <v>11.35666968470247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.70573855766387</v>
+        <v>13.55634913852601</v>
       </c>
       <c r="C9">
-        <v>9.002104911412582</v>
+        <v>9.084798100059652</v>
       </c>
       <c r="D9">
-        <v>6.167295785070967</v>
+        <v>6.228183547203056</v>
       </c>
       <c r="F9">
-        <v>14.2037707038332</v>
+        <v>14.00415330263045</v>
       </c>
       <c r="G9">
-        <v>15.43934416668872</v>
+        <v>14.65145469348024</v>
       </c>
       <c r="I9">
-        <v>3.13007461420283</v>
+        <v>3.132700970811498</v>
       </c>
       <c r="J9">
-        <v>7.427388953464555</v>
+        <v>7.901277833913965</v>
       </c>
       <c r="K9">
-        <v>11.17132105311976</v>
+        <v>11.02355420089629</v>
+      </c>
+      <c r="L9">
+        <v>10.01244712962545</v>
       </c>
       <c r="M9">
-        <v>12.51098959377295</v>
-      </c>
-      <c r="P9">
-        <v>11.74369943241289</v>
-      </c>
-      <c r="Q9">
-        <v>11.23977603752776</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>6.280434016754266</v>
+      </c>
+      <c r="O9">
+        <v>12.48388061646563</v>
+      </c>
+      <c r="R9">
+        <v>11.77816358454416</v>
+      </c>
+      <c r="S9">
+        <v>11.12572761228419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.83430779101393</v>
+        <v>14.6161720024936</v>
       </c>
       <c r="C10">
-        <v>9.531481921455244</v>
+        <v>9.694206394131227</v>
       </c>
       <c r="D10">
-        <v>6.600757932064004</v>
+        <v>6.694043492441621</v>
       </c>
       <c r="F10">
-        <v>14.50257791170531</v>
+        <v>14.19374639145899</v>
       </c>
       <c r="G10">
-        <v>15.60813826250869</v>
+        <v>15.23477141663152</v>
       </c>
       <c r="I10">
-        <v>3.311104137767261</v>
+        <v>3.293266984843625</v>
       </c>
       <c r="J10">
-        <v>7.314742915480066</v>
+        <v>7.679799143002752</v>
       </c>
       <c r="K10">
-        <v>10.89947811514924</v>
+        <v>10.72898148573096</v>
+      </c>
+      <c r="L10">
+        <v>9.745354636407459</v>
       </c>
       <c r="M10">
-        <v>13.405636679069</v>
-      </c>
-      <c r="P10">
-        <v>11.62427859596876</v>
-      </c>
-      <c r="Q10">
-        <v>11.12078415304888</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>6.217201156386219</v>
+      </c>
+      <c r="O10">
+        <v>13.35780965326494</v>
+      </c>
+      <c r="R10">
+        <v>11.69665380519767</v>
+      </c>
+      <c r="S10">
+        <v>10.94453374256131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.29899677525976</v>
+        <v>15.03151928083071</v>
       </c>
       <c r="C11">
-        <v>9.79557014665501</v>
+        <v>9.951192239942378</v>
       </c>
       <c r="D11">
-        <v>6.794507872976825</v>
+        <v>6.925533810125148</v>
       </c>
       <c r="F11">
-        <v>14.62444625556263</v>
+        <v>14.16838415044561</v>
       </c>
       <c r="G11">
-        <v>15.66142739059063</v>
+        <v>16.25200762110976</v>
       </c>
       <c r="I11">
-        <v>3.395875118515247</v>
+        <v>3.367689404106467</v>
       </c>
       <c r="J11">
-        <v>7.260812228814411</v>
+        <v>7.393764715299754</v>
       </c>
       <c r="K11">
-        <v>10.76557820011272</v>
+        <v>10.55648237535197</v>
+      </c>
+      <c r="L11">
+        <v>9.608772546508966</v>
       </c>
       <c r="M11">
-        <v>13.79337483380816</v>
-      </c>
-      <c r="P11">
-        <v>11.57776195462728</v>
-      </c>
-      <c r="Q11">
-        <v>11.05892889571115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>6.163696919123523</v>
+      </c>
+      <c r="O11">
+        <v>13.70826870166836</v>
+      </c>
+      <c r="R11">
+        <v>11.68280242289595</v>
+      </c>
+      <c r="S11">
+        <v>10.79079347793869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.4807262271997</v>
+        <v>15.19260432967038</v>
       </c>
       <c r="C12">
-        <v>9.878472763843533</v>
+        <v>10.02547189527942</v>
       </c>
       <c r="D12">
-        <v>6.863559009041445</v>
+        <v>7.011496268208983</v>
       </c>
       <c r="F12">
-        <v>14.68472841898923</v>
+        <v>14.16058229200775</v>
       </c>
       <c r="G12">
-        <v>15.70648800327215</v>
+        <v>16.76556260860322</v>
       </c>
       <c r="I12">
-        <v>3.425556862280592</v>
+        <v>3.392367188579203</v>
       </c>
       <c r="J12">
-        <v>7.24402681844101</v>
+        <v>7.28428928106446</v>
       </c>
       <c r="K12">
-        <v>10.72320034273868</v>
+        <v>10.49496743516538</v>
+      </c>
+      <c r="L12">
+        <v>9.561349817398465</v>
       </c>
       <c r="M12">
-        <v>13.936986663174</v>
-      </c>
-      <c r="P12">
-        <v>11.55829111170292</v>
-      </c>
-      <c r="Q12">
-        <v>11.04524931519601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>6.148669966867417</v>
+      </c>
+      <c r="O12">
+        <v>13.83459161835773</v>
+      </c>
+      <c r="R12">
+        <v>11.67765684398522</v>
+      </c>
+      <c r="S12">
+        <v>10.73364555788413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.44375875513673</v>
+        <v>15.16017523831452</v>
       </c>
       <c r="C13">
-        <v>9.85746899491401</v>
+        <v>10.00641405208744</v>
       </c>
       <c r="D13">
-        <v>6.848152584738189</v>
+        <v>6.992322882763134</v>
       </c>
       <c r="F13">
-        <v>14.67422138232127</v>
+        <v>14.16526568076603</v>
       </c>
       <c r="G13">
-        <v>15.70109406463618</v>
+        <v>16.65490831531757</v>
       </c>
       <c r="I13">
-        <v>3.418676120368235</v>
+        <v>3.386383869108155</v>
       </c>
       <c r="J13">
-        <v>7.248254671936197</v>
+        <v>7.307947686964184</v>
       </c>
       <c r="K13">
-        <v>10.73385008034798</v>
+        <v>10.50973274772515</v>
+      </c>
+      <c r="L13">
+        <v>9.572318264763538</v>
       </c>
       <c r="M13">
-        <v>13.9061201072963</v>
-      </c>
-      <c r="P13">
-        <v>11.56197902980109</v>
-      </c>
-      <c r="Q13">
-        <v>11.04984629285647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>6.153494149491927</v>
+      </c>
+      <c r="O13">
+        <v>13.80758459153459</v>
+      </c>
+      <c r="R13">
+        <v>11.67810385470731</v>
+      </c>
+      <c r="S13">
+        <v>10.74791114303688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.31488162268871</v>
+        <v>15.04574726566788</v>
       </c>
       <c r="C14">
-        <v>9.801046295082823</v>
+        <v>9.956000547304248</v>
       </c>
       <c r="D14">
-        <v>6.799961295558385</v>
+        <v>6.932322617426196</v>
       </c>
       <c r="F14">
-        <v>14.63045932968287</v>
+        <v>14.16903439335124</v>
       </c>
       <c r="G14">
-        <v>15.66696726718209</v>
+        <v>16.29412118629728</v>
       </c>
       <c r="I14">
-        <v>3.398103453553056</v>
+        <v>3.369428699153804</v>
       </c>
       <c r="J14">
-        <v>7.259690944899461</v>
+        <v>7.384846840717847</v>
       </c>
       <c r="K14">
-        <v>10.76273690236773</v>
+        <v>10.55207336873906</v>
+      </c>
+      <c r="L14">
+        <v>9.605203040437168</v>
       </c>
       <c r="M14">
-        <v>13.80521966652043</v>
-      </c>
-      <c r="P14">
-        <v>11.57594596885048</v>
-      </c>
-      <c r="Q14">
-        <v>11.05850330656513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>6.163130804794551</v>
+      </c>
+      <c r="O14">
+        <v>13.71875266056057</v>
+      </c>
+      <c r="R14">
+        <v>11.68209818086642</v>
+      </c>
+      <c r="S14">
+        <v>10.78693383324014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.23141974555748</v>
+        <v>14.97086912816457</v>
       </c>
       <c r="C15">
-        <v>9.772717812368834</v>
+        <v>9.930978160483944</v>
       </c>
       <c r="D15">
-        <v>6.771456123795335</v>
+        <v>6.896941596448723</v>
       </c>
       <c r="F15">
-        <v>14.59880579222088</v>
+        <v>14.16492520102317</v>
       </c>
       <c r="G15">
-        <v>15.63764887754839</v>
+        <v>16.07771809742034</v>
       </c>
       <c r="I15">
-        <v>3.38654380389007</v>
+        <v>3.36044732780813</v>
       </c>
       <c r="J15">
-        <v>7.265511343090412</v>
+        <v>7.431388745952047</v>
       </c>
       <c r="K15">
-        <v>10.77747071896191</v>
+        <v>10.57485072465943</v>
+      </c>
+      <c r="L15">
+        <v>9.62376325318986</v>
       </c>
       <c r="M15">
-        <v>13.74317023578226</v>
-      </c>
-      <c r="P15">
-        <v>11.58550689380397</v>
-      </c>
-      <c r="Q15">
-        <v>11.06060996986419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>6.165880410343357</v>
+      </c>
+      <c r="O15">
+        <v>13.66369298578584</v>
+      </c>
+      <c r="R15">
+        <v>11.68593574063909</v>
+      </c>
+      <c r="S15">
+        <v>10.80665317859192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.76926713659898</v>
+        <v>14.55398919540168</v>
       </c>
       <c r="C16">
-        <v>9.568370900977561</v>
+        <v>9.733513786360698</v>
       </c>
       <c r="D16">
-        <v>6.598064805798623</v>
+        <v>6.6893465755321</v>
       </c>
       <c r="F16">
-        <v>14.45208174297636</v>
+        <v>14.15146535447173</v>
       </c>
       <c r="G16">
-        <v>15.53069753902011</v>
+        <v>15.10432443617836</v>
       </c>
       <c r="I16">
-        <v>3.313377219736654</v>
+        <v>3.299174868093023</v>
       </c>
       <c r="J16">
-        <v>7.307818174878554</v>
+        <v>7.688282712237997</v>
       </c>
       <c r="K16">
-        <v>10.88268521320603</v>
+        <v>10.71633424984929</v>
+      </c>
+      <c r="L16">
+        <v>9.739552074827431</v>
       </c>
       <c r="M16">
-        <v>13.38101542961595</v>
-      </c>
-      <c r="P16">
-        <v>11.63516309697034</v>
-      </c>
-      <c r="Q16">
-        <v>11.09666356165618</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>6.196924643773658</v>
+      </c>
+      <c r="O16">
+        <v>13.33523283121241</v>
+      </c>
+      <c r="R16">
+        <v>11.70633918114696</v>
+      </c>
+      <c r="S16">
+        <v>10.92610866381163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.47793001344986</v>
+        <v>14.28684165442067</v>
       </c>
       <c r="C17">
-        <v>9.441326111623585</v>
+        <v>9.601404934678383</v>
       </c>
       <c r="D17">
-        <v>6.489398112513829</v>
+        <v>6.564402163954671</v>
       </c>
       <c r="F17">
-        <v>14.36463880932157</v>
+        <v>14.1247357441879</v>
       </c>
       <c r="G17">
-        <v>15.46998120936092</v>
+        <v>14.68435895832023</v>
       </c>
       <c r="I17">
-        <v>3.268201691686811</v>
+        <v>3.260832457999909</v>
       </c>
       <c r="J17">
-        <v>7.334665607386448</v>
+        <v>7.817552306480234</v>
       </c>
       <c r="K17">
-        <v>10.94847752403057</v>
+        <v>10.79778157998924</v>
+      </c>
+      <c r="L17">
+        <v>9.809759777914143</v>
       </c>
       <c r="M17">
-        <v>13.15373743885933</v>
-      </c>
-      <c r="P17">
-        <v>11.66640514246298</v>
-      </c>
-      <c r="Q17">
-        <v>11.12107220255961</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>6.214006875914287</v>
+      </c>
+      <c r="O17">
+        <v>13.12293467934718</v>
+      </c>
+      <c r="R17">
+        <v>11.72309341923507</v>
+      </c>
+      <c r="S17">
+        <v>10.98749591179874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.31810276915468</v>
+        <v>14.13962697458196</v>
       </c>
       <c r="C18">
-        <v>9.350831973523817</v>
+        <v>9.50368428097555</v>
       </c>
       <c r="D18">
-        <v>6.42290562155715</v>
+        <v>6.490245100463143</v>
       </c>
       <c r="F18">
-        <v>14.32836615618443</v>
+        <v>14.11586259547697</v>
       </c>
       <c r="G18">
-        <v>15.45948928559547</v>
+        <v>14.52780175553857</v>
       </c>
       <c r="I18">
-        <v>3.238874781321018</v>
+        <v>3.234168078246895</v>
       </c>
       <c r="J18">
-        <v>7.353605783901261</v>
+        <v>7.880194059456038</v>
       </c>
       <c r="K18">
-        <v>10.99446085542128</v>
+        <v>10.84994792266352</v>
+      </c>
+      <c r="L18">
+        <v>9.854518887179625</v>
       </c>
       <c r="M18">
-        <v>13.02079767391025</v>
-      </c>
-      <c r="P18">
-        <v>11.68234823985744</v>
-      </c>
-      <c r="Q18">
-        <v>11.14449535616885</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>6.230211575839674</v>
+      </c>
+      <c r="O18">
+        <v>12.99649113688197</v>
+      </c>
+      <c r="R18">
+        <v>11.73170837594367</v>
+      </c>
+      <c r="S18">
+        <v>11.02706515609579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.25531891978087</v>
+        <v>14.08086483515922</v>
       </c>
       <c r="C19">
-        <v>9.33302969845426</v>
+        <v>9.483520133187842</v>
       </c>
       <c r="D19">
-        <v>6.402674235255105</v>
+        <v>6.467732519477701</v>
       </c>
       <c r="F19">
-        <v>14.30617054801605</v>
+        <v>14.1017214033506</v>
       </c>
       <c r="G19">
-        <v>15.43876967727196</v>
+        <v>14.46681091991011</v>
       </c>
       <c r="I19">
-        <v>3.231342429801397</v>
+        <v>3.228319565608655</v>
       </c>
       <c r="J19">
-        <v>7.357622615653805</v>
+        <v>7.896401392268136</v>
       </c>
       <c r="K19">
-        <v>11.00416894070213</v>
+        <v>10.8617625104124</v>
+      </c>
+      <c r="L19">
+        <v>9.865852949744259</v>
       </c>
       <c r="M19">
-        <v>12.97573444366606</v>
-      </c>
-      <c r="P19">
-        <v>11.68957704867044</v>
-      </c>
-      <c r="Q19">
-        <v>11.14595691572588</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>6.230438486483822</v>
+      </c>
+      <c r="O19">
+        <v>12.95327920301273</v>
+      </c>
+      <c r="R19">
+        <v>11.73676931677175</v>
+      </c>
+      <c r="S19">
+        <v>11.03330418404757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.51006496486728</v>
+        <v>14.31654078263672</v>
       </c>
       <c r="C20">
-        <v>9.453604259494611</v>
+        <v>9.614510573931835</v>
       </c>
       <c r="D20">
-        <v>6.500807986572421</v>
+        <v>6.577364350591997</v>
       </c>
       <c r="F20">
-        <v>14.37487120706933</v>
+        <v>14.1292804124949</v>
       </c>
       <c r="G20">
-        <v>15.47803377292064</v>
+        <v>14.72446806547861</v>
       </c>
       <c r="I20">
-        <v>3.27276263855532</v>
+        <v>3.264599191026019</v>
       </c>
       <c r="J20">
-        <v>7.332023589083699</v>
+        <v>7.805457699120927</v>
       </c>
       <c r="K20">
-        <v>10.94203121386921</v>
+        <v>10.78986669790274</v>
+      </c>
+      <c r="L20">
+        <v>9.802699003497738</v>
       </c>
       <c r="M20">
-        <v>13.17809801287046</v>
-      </c>
-      <c r="P20">
-        <v>11.66286698886645</v>
-      </c>
-      <c r="Q20">
-        <v>11.11906088713897</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>6.212775740001558</v>
+      </c>
+      <c r="O20">
+        <v>13.14591678678103</v>
+      </c>
+      <c r="R20">
+        <v>11.72096126276496</v>
+      </c>
+      <c r="S20">
+        <v>10.98205102167149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.34172370092127</v>
+        <v>15.06136952695281</v>
       </c>
       <c r="C21">
-        <v>9.835604767919252</v>
+        <v>9.974479004191119</v>
       </c>
       <c r="D21">
-        <v>6.817487648953315</v>
+        <v>6.961699666680925</v>
       </c>
       <c r="F21">
-        <v>14.62902529407852</v>
+        <v>14.1196758253247</v>
       </c>
       <c r="G21">
-        <v>15.65204124647152</v>
+        <v>16.64949642071834</v>
       </c>
       <c r="I21">
-        <v>3.407221105918175</v>
+        <v>3.377548418239539</v>
       </c>
       <c r="J21">
-        <v>7.252760191894382</v>
+        <v>7.307327564874662</v>
       </c>
       <c r="K21">
-        <v>10.74555140693131</v>
+        <v>10.52202921487594</v>
+      </c>
+      <c r="L21">
+        <v>9.585526672155195</v>
       </c>
       <c r="M21">
-        <v>13.83530530487853</v>
-      </c>
-      <c r="P21">
-        <v>11.57453913304389</v>
-      </c>
-      <c r="Q21">
-        <v>11.04635004085786</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>6.141266521396697</v>
+      </c>
+      <c r="O21">
+        <v>13.73539085976707</v>
+      </c>
+      <c r="R21">
+        <v>11.68898311376376</v>
+      </c>
+      <c r="S21">
+        <v>10.74443072886583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.87385251207935</v>
+        <v>15.53682615345743</v>
       </c>
       <c r="C22">
-        <v>10.05687266947979</v>
+        <v>10.17581976642543</v>
       </c>
       <c r="D22">
-        <v>7.012660344043585</v>
+        <v>7.202542187885581</v>
       </c>
       <c r="F22">
-        <v>14.82156083109497</v>
+        <v>14.12488800085795</v>
       </c>
       <c r="G22">
-        <v>15.81364931369567</v>
+        <v>18.09423700562503</v>
       </c>
       <c r="I22">
-        <v>3.490135797893868</v>
+        <v>3.445532831647212</v>
       </c>
       <c r="J22">
-        <v>7.2084847430908</v>
+        <v>7.069691897242087</v>
       </c>
       <c r="K22">
-        <v>10.63234825564855</v>
+        <v>10.35458297665266</v>
+      </c>
+      <c r="L22">
+        <v>9.458115743229103</v>
       </c>
       <c r="M22">
-        <v>14.24754656634204</v>
-      </c>
-      <c r="P22">
-        <v>11.51597825520618</v>
-      </c>
-      <c r="Q22">
-        <v>11.01877283604658</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>6.112365575900326</v>
+      </c>
+      <c r="O22">
+        <v>14.10155519319676</v>
+      </c>
+      <c r="R22">
+        <v>11.67104756307872</v>
+      </c>
+      <c r="S22">
+        <v>10.59552782163789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.60546709805121</v>
+        <v>15.3034933239496</v>
       </c>
       <c r="C23">
-        <v>9.917809341803411</v>
+        <v>10.05727348770971</v>
       </c>
       <c r="D23">
-        <v>6.905199727771931</v>
+        <v>7.064756278731885</v>
       </c>
       <c r="F23">
-        <v>14.73515105596087</v>
+        <v>14.1634285410725</v>
       </c>
       <c r="G23">
-        <v>15.75577865510849</v>
+        <v>17.14794001400552</v>
       </c>
       <c r="I23">
-        <v>3.442647122867743</v>
+        <v>3.40538327282359</v>
       </c>
       <c r="J23">
-        <v>7.236125327918177</v>
+        <v>7.217330387330064</v>
       </c>
       <c r="K23">
-        <v>10.70287532995411</v>
+        <v>10.46030448994461</v>
+      </c>
+      <c r="L23">
+        <v>9.53400912343197</v>
       </c>
       <c r="M23">
-        <v>14.02862861453029</v>
-      </c>
-      <c r="P23">
-        <v>11.54370571300358</v>
-      </c>
-      <c r="Q23">
-        <v>11.04430076335468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>6.144966886435996</v>
+      </c>
+      <c r="O23">
+        <v>13.91419543561655</v>
+      </c>
+      <c r="R23">
+        <v>11.67270051093795</v>
+      </c>
+      <c r="S23">
+        <v>10.70181589304244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.51777404955445</v>
+        <v>14.32541091470393</v>
       </c>
       <c r="C24">
-        <v>9.412795913041466</v>
+        <v>9.571525106510151</v>
       </c>
       <c r="D24">
-        <v>6.489047359898422</v>
+        <v>6.564842481260358</v>
       </c>
       <c r="F24">
-        <v>14.39780606742696</v>
+        <v>14.15468960680512</v>
       </c>
       <c r="G24">
-        <v>15.52222927487384</v>
+        <v>14.75606501983579</v>
       </c>
       <c r="I24">
-        <v>3.264772867781295</v>
+        <v>3.254871008739971</v>
       </c>
       <c r="J24">
-        <v>7.339947067656752</v>
+        <v>7.816926009269663</v>
       </c>
       <c r="K24">
-        <v>10.9612884076141</v>
+        <v>10.80861801503177</v>
+      </c>
+      <c r="L24">
+        <v>9.815854598050047</v>
       </c>
       <c r="M24">
-        <v>13.16636180522305</v>
-      </c>
-      <c r="P24">
-        <v>11.6595452207576</v>
-      </c>
-      <c r="Q24">
-        <v>11.13811022402258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>6.227956288415695</v>
+      </c>
+      <c r="O24">
+        <v>13.13477460172427</v>
+      </c>
+      <c r="R24">
+        <v>11.71663808167053</v>
+      </c>
+      <c r="S24">
+        <v>11.00225034523414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.23746688914531</v>
+        <v>13.11349729622168</v>
       </c>
       <c r="C25">
-        <v>8.841142425169457</v>
+        <v>8.891987336785027</v>
       </c>
       <c r="D25">
-        <v>6.007365400003954</v>
+        <v>6.057423949649762</v>
       </c>
       <c r="F25">
-        <v>14.07205101454184</v>
+        <v>13.90522914324019</v>
       </c>
       <c r="G25">
-        <v>15.34038318665388</v>
+        <v>14.45236211746305</v>
       </c>
       <c r="I25">
-        <v>3.066451905864645</v>
+        <v>3.078632955790044</v>
       </c>
       <c r="J25">
-        <v>7.464445681820775</v>
+        <v>7.963378710932625</v>
       </c>
       <c r="K25">
-        <v>11.25769854470121</v>
+        <v>11.11625097703779</v>
+      </c>
+      <c r="L25">
+        <v>10.10354767190275</v>
       </c>
       <c r="M25">
-        <v>12.16497607860402</v>
-      </c>
-      <c r="P25">
-        <v>11.79535353283299</v>
-      </c>
-      <c r="Q25">
-        <v>11.27107533337579</v>
+        <v>6.306561754365736</v>
+      </c>
+      <c r="O25">
+        <v>12.14388101440649</v>
+      </c>
+      <c r="R25">
+        <v>11.81758224115298</v>
+      </c>
+      <c r="S25">
+        <v>11.17462418307775</v>
       </c>
     </row>
   </sheetData>
